--- a/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_persian.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_persian.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641545-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Persian Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641550-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -204,59 +545,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215578/persian-melon-salad/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Persian Melon Salad</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  honeydew melon, fruit removed with a melon baller\n\n\n1  cantaloupe, fruit removed with a melon baller\n\n\n¼  watermelon, fruit removed with a melon baller\n\n\n1 bunch grapes \n\n\n1  pineapple - peeled, cored, and cut into chunks\n\n\n2 tablespoons pickled ginger\n\n\n1 cup fresh orange juice\n\n\n¼ cup fresh lime juice\n\n\n1 tablespoon white sugar\n\n\n¼ cup chopped fresh mint\n\n\n1 pint fresh strawberries, hulled (Optional)\n\n\n4 sprigs fresh mint for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  honeydew melon, fruit removed with a melon baller\n\n\n1  cantaloupe, fruit removed with a melon baller\n\n\n¼  watermelon, fruit removed with a melon baller\n\n\n1 bunch grapes \n\n\n1  pineapple - peeled, cored, and cut into chunks\n\n\n2 tablespoons pickled ginger\n\n\n1 cup fresh orange juice\n\n\n¼ cup fresh lime juice\n\n\n1 tablespoon white sugar\n\n\n¼ cup chopped fresh mint\n\n\n1 pint fresh strawberries, hulled (Optional)\n\n\n4 sprigs fresh mint for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the honeydew, cantaloupe, watermelon, grapes, pineapple, pickled ginger, orange juice, lime juice, sugar, and chopped mint in a large bowl; stir to mix evenly. Cover the bowl with plastic wrap and refrigerate at least 1 hour."},{"recipe_directions":"Gently fold the strawberries into the fruit mixture. Garnish with the mint sprigs to serve."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Fruit Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"194\nCalories\n\n\n1g \nFat\n\n\n49g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641555-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ccmPmAFjliNR5SXvWCz37OxTLeA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Shadis-Soup-e-Mahicheh-Lamb-and-Lentil-Soup-2000-6a7f3941cf094cdab310b6f8e24d14b4.jpg"
@@ -268,59 +605,55 @@
 Shadi's Soup-e Mahicheh</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8339170/shadis-soup-e-mahicheh/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Shadi's Soup-e Mahicheh</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n1 (1 pound) lamb shank, excess fat removed\n\n\n6 cups water\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon ground black pepper\n\n\n1 large carrot, chopped\n\n\n½ cup green lentils\n\n\n⅓ cup rice\n\n\n2 cups chopped fresh spinach\n\n\n½ cup chopped fresh parsley\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n1 medium lemon, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 large onion, chopped\n\n\n4 cloves garlic, minced\n\n\n1 (1 pound) lamb shank, excess fat removed\n\n\n6 cups water\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon ground black pepper\n\n\n1 large carrot, chopped\n\n\n½ cup green lentils\n\n\n⅓ cup rice\n\n\n2 cups chopped fresh spinach\n\n\n½ cup chopped fresh parsley\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n1 medium lemon, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a 4-quart Dutch oven or other heavy-bottomed pot over medium heat. Add onion; cook until translucent, about 5 minutes. Add garlic; cook 1 minute more. Add lamb shank and sear until lightly browned on all sides, about 6 minutes total."},{"recipe_directions":"Add the water, turmeric, and pepper. Bring to a boil. Reduce heat and simmer, covered, until lamb is almost cooked, about 40 minutes."},{"recipe_directions":"Add carrot, lentils, and rice. Cover and cook 20 minutes more. Stir in spinach, parsley, and cilantro. Cook over medium-low heat 10 minutes more."},{"recipe_directions":"Remove lamb shank and let cool slightly. Separate meat from bone, shred it into medium pieces, and return it to the soup."},{"recipe_directions":"Season with salt and additional black pepper as needed. Add lemon juice just before serving."},{"recipe_directions":"You can use brown lentils instead of green."},{"recipe_directions":"This is part of a special feature in our February-March 2022 magazine issue. See the magazine for more recipes!"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Lamb"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"307\nCalories\n\n\n22g \nFat\n\n\n5g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641561-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xzc4EY9vyVDa0f-DJ-nHtJQbVOQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/7797830-cd3f91d875514705bf6aa8402dfb3d8f.jpg"
@@ -331,59 +664,55 @@
 Tut (Persian Marzipan)</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279197/tut-persian-marzipan/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tut (Persian Marzipan)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup blanched almond flour\n\n\n½ cup powdered sugar, or more to taste\n\n\n½ teaspoon ground cardamom\n\n\n2 tablespoons rose water, or more as needed\n\n\n¼ cup white sugar\n\n\n2 tablespoons raw pistachios"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup blanched almond flour\n\n\n½ cup powdered sugar, or more to taste\n\n\n½ teaspoon ground cardamom\n\n\n2 tablespoons rose water, or more as needed\n\n\n¼ cup white sugar\n\n\n2 tablespoons raw pistachios'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond flour, powdered sugar, and cardamom in a medium bowl. Drizzle in rose water, 1 tablespoon at a time, and gently knead until a soft dough forms that doesn't stick to your hands. Taste and add more powdered sugar to reach desired sweetness. Adjust rose water if needed."},{"recipe_directions":"Pinch off about 1/2 teaspoon of dough. Form into a ball and shape like a cone, to resemble a mulberry, or any shape that you like. Roll in white sugar. Repeat with remaining dough."},{"recipe_directions":"Chop pistachios into slivers, resembling stems. Place a pistachio sliver over each piece of \"tut.\""}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"125\nCalories\n\n\n7g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641571-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ohqSFgX65OJgAuaHYcJNKJzcS78=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2245697-3e864b20bb4145ba89760ad0b8a1f6b1.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/110656/ginger-sekanjabin/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Ginger Sekanjabin</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n20 \n\n\nYield:\n4 cups of syrup"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups white sugar\n\n\n2 ½ cups water\n\n\n1 cup red or white wine vinegar\n\n\n½ cup minced fresh ginger"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups white sugar\n\n\n2 ½ cups water\n\n\n1 cup red or white wine vinegar\n\n\n½ cup minced fresh ginger'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Boil the sugar and water together in a large saucepan over high heat for 2 to 3 minutes. Remove the pan from the heat, and stir in the vinegar and minced ginger."},{"recipe_directions":"Allow mixture to cool to room temperature, then strain out the minced ginger with a fine sieve. Store at room temperature in a sterile container."},{"recipe_directions":"To use, stir 1 part syrup into 4 to 5 parts water; serve cold with ice if desired."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641575-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/72bOc00na5VtzohXTgAnEOV0aH0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1829930-bfcf84ddb65444a1891cd4893a1283e5.jpg"
@@ -461,59 +786,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234187/savory-saffron-chicken-polow/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Savory Saffron Chicken Polow</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 ⅓ cups water\n\n\n6 ½ tablespoons olive oil, divided\n\n\n16 ounces yellow saffron rice\n\n\n2  yellow onions, chopped\n\n\n1 clove garlic, minced\n\n\n2 pounds skinless, boneless chicken breast halves, cut into cubes\n\n\n2 cups chicken broth\n\n\n2 (16 ounce) cans chickpeas (garbanzo beans), drained\n\n\n4 ounces raisins\n\n\n1 tablespoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 ⅓ cups water\n\n\n6 ½ tablespoons olive oil, divided\n\n\n16 ounces yellow saffron rice\n\n\n2  yellow onions, chopped\n\n\n1 clove garlic, minced\n\n\n2 pounds skinless, boneless chicken breast halves, cut into cubes\n\n\n2 cups chicken broth\n\n\n2 (16 ounce) cans chickpeas (garbanzo beans), drained\n\n\n4 ounces raisins\n\n\n1 tablespoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and 3 1/2 tablespoons olive oil to a boil in a large pot; stir in saffron rice. Reduce heat to low, cover, and simmer until rice is tender and liquid is absorbed, 20 minutes."},{"recipe_directions":"Heat 3 tablespoons olive oil in a skillet over medium-high heat; cook and stir onions and garlic in hot oil until lightly browned and softened, 5 to 10 minutes."},{"recipe_directions":"Stir chicken into skillet and cook until seared on all sides; add chicken broth. Bring broth to a boil, reduce heat to low, cover, and simmer until broth is reduced and chicken is tender, 30 to 45 minutes. Remove from heat. Shred chicken using two forks to pull chicken cubes apart."},{"recipe_directions":"Preheat oven to 385 degrees F (196 degrees C). Grease a 9x12-inch baking dish."},{"recipe_directions":"Spread 1/2 the rice in a layer on the bottom of the baking dish. Spoon chicken and onion mixture over rice; spread chickpeas and raisins over chicken mixture. Top with remaining rice and sprinkle with paprika."},{"recipe_directions":"Bake in the preheated oven until liquid is almost completely cooked off and rice is lightly browned at the edges, about 30 minutes. Cool for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"764\nCalories\n\n\n20g \nFat\n\n\n103g \nCarbs\n\n\n45g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641579-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8SBzEQRsilQ1bqMBrcZvM1yhzXw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(649x0:651x2):format(webp)/4540643-74a99eb9271b4444bc2993b364dc0a85.jpg"
@@ -526,59 +847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259284/masht-o-khiyaar-persian-cucumber-salad-with-sultanas-and-walnuts/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Masht-o Khiyaar (Persian Cucumber Salad with Sultanas and Walnuts)</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr 20 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups plain yogurt\n\n\n2 tablespoons roughly chopped walnuts\n\n\n3 tablespoons golden raisins (sultanas), roughly chopped\n\n\n1 tablespoon chopped fresh dill\n\n\n1 tablespoon chopped fresh mint\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 large cucumber - peeled, seeded, and diced"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups plain yogurt\n\n\n2 tablespoons roughly chopped walnuts\n\n\n3 tablespoons golden raisins (sultanas), roughly chopped\n\n\n1 tablespoon chopped fresh dill\n\n\n1 tablespoon chopped fresh mint\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 large cucumber - peeled, seeded, and diced'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place yogurt into a fine-mesh sieve lined with a coffee filter and allow to drain, about 20 minutes. You should end up with about a cup of thick yogurt."},{"recipe_directions":"Heat a small skillet over medium heat, add walnuts, and toast while stirring until nuts start to turn golden brown and become fragrant, 3 to 5 minutes. Allow to cool."},{"recipe_directions":"Mix yogurt, sultanas, walnuts, dill, mint, salt, and pepper in a large bowl, add cucumber and toss to combine. Refrigerate for 1 hour."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n3g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641584-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/POa4GwJ8kmiPqmrCCX-gDZZdMkw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/4501767-57ed5c095f454719ba0169188adbe3ba.jpg"
@@ -591,59 +908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257502/shiraz-salad/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Shiraz Salad</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 small cucumbers, diced\n\n\n1  tomato, diced\n\n\n1  onion, diced\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon chopped fresh mint\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 small cucumbers, diced\n\n\n1  tomato, diced\n\n\n1  onion, diced\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon chopped fresh mint\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cucumbers, tomato, onion, lemon juice, mint, salt, and pepper together in a bowl."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"61\nCalories\n\n\n0g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641587-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H9vo74u3mMUp0vTyXBSClLrq_YA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1093231-9f3ad78d0d9d40b5b1caa6f9185cfacd.jpg"
@@ -656,59 +969,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49450/khoresht-fesenjaan-chicken-with-pomegranate-sauce/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Khoresht Fesenjaan (Chicken with Pomegranate Sauce)</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 30 mins\n\n\nTotal Time:\n 3 hrs 50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup vegetable oil\n\n\n4 medium red onions, thinly sliced\n\n\n3 pounds bone-in chicken pieces\n\n\n2 cups hot water or as needed\n\n\n2 ½ cups pomegranate juice\n\n\n4 cups chopped walnuts\n\n\n2 tablespoons freshly ground cardamom\n\n\n2 tablespoons ground cinnamon\n\n\n1 medium butternut squash, seeded and cubed\n\n\n¼ teaspoon saffron powder\n\n\n1 teaspoon salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup vegetable oil\n\n\n4 medium red onions, thinly sliced\n\n\n3 pounds bone-in chicken pieces\n\n\n2 cups hot water or as needed\n\n\n2 ½ cups pomegranate juice\n\n\n4 cups chopped walnuts\n\n\n2 tablespoons freshly ground cardamom\n\n\n2 tablespoons ground cinnamon\n\n\n1 medium butternut squash, seeded and cubed\n\n\n¼ teaspoon saffron powder\n\n\n1 teaspoon salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a large heavy skillet over medium heat. Stir in sliced onions; cook and stir until the onion has softened and turned translucent, about 5 minutes. Reduce heat to medium-low, and continue cooking and stirring until the onion is very tender and dark brown, 15 to 20 minutes more."},{"recipe_directions":"Raise heat to medium-high. Add chicken pieces, and fry until lightly browned on the outside. Pour in the water, and bring to a boil. Reduce heat to low and simmer for about 30 minutes, adding more water if necessary to keep the mixture from drying out."},{"recipe_directions":"Preheat the oven to 325 degrees F (65 degrees C)."},{"recipe_directions":"Combine the walnuts and pomegranate juice in the container of a blender or food processor. Process into liquid. (This can be done in small batches if necessary.) Add walnut-pomegranate mixture to the simmering chicken. Season with cardamom, cinnamon, saffron powder, and salt. Stir in the cubed squash. Transfer the entire mixture to a 9x13-inch baking dish."},{"recipe_directions":"Bake, loosely covered, for 2 1/2 hours in the preheated oven. Serve with white rice."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"743\nCalories\n\n\n52g \nFat\n\n\n49g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641592-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KW7x8jsv5fsTJZeDVv9ONzHHZGE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/866253-1420aea65dad4ea78de399d6369374c0.jpg"
@@ -719,59 +1028,55 @@
 Middle Eastern-Style Dolma (Stuffed Vegetables)</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284250/middle-eastern-style-dolma-stuffed-vegetables/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Middle Eastern-Style Dolma (Stuffed Vegetables)</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 2 hrs 15 mins\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds ground beef\n\n\n3 (6 ounce) cans tomato paste, divided\n\n\n¾ cup chopped fresh parsley\n\n\n¾ cup chopped green onion\n\n\n½ cup unsalted butter, softened\n\n\n1 tablespoon salt\n\n\n¾ tablespoon ground black pepper\n\n\n1 ½ cups uncooked white rice\n\n\n1 medium head cabbage, leaves separated\n\n\n4 large green bell pepper, chopped\n\n\n2 large eggplants\n\n\n2 large zucchini, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds ground beef\n\n\n3 (6 ounce) cans tomato paste, divided\n\n\n¾ cup chopped fresh parsley\n\n\n¾ cup chopped green onion\n\n\n½ cup unsalted butter, softened\n\n\n1 tablespoon salt\n\n\n¾ tablespoon ground black pepper\n\n\n1 ½ cups uncooked white rice\n\n\n1 medium head cabbage, leaves separated\n\n\n4 large green bell pepper, chopped\n\n\n2 large eggplants\n\n\n2 large zucchini, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine ground beef, 2 1/2 cans of tomato paste, parsley, green onion, butter, salt, and pepper in a large bowl."},{"recipe_directions":"Before adding uncooked rice, rinse until water runs clear; this keeps the rice from becoming sticky. Add rice after rinsing and mix contents until blended well."},{"recipe_directions":"Bring a pot of lightly salted water to a boil; add cabbage. Boil until just tender enough to fold, 2 to 3 minutes. Drain and set aside."},{"recipe_directions":"Meanwhile, hollow out bell peppers, eggplants, and zucchini."},{"recipe_directions":"Stuff hollowed vegetables with meat mixture. Set in a large pot (pack vegetables together so there isn't much room in between them). Fill cabbage leaves with 3 to 4 tablespoons of leftover meat mixture and set in the pot with the other vegetables. Pour water in the pot on top of the vegetables until almost covered. Stir in remaining tomato paste. Weigh down the food by placing a heavy, heat-proof plate on top."},{"recipe_directions":"Bring water to a boil; reduce heat to medium and cover the pot. Let cook for 1 hour. Drain half of the water in the pot (leave heavy plate until done cooking) and recover, reducing heat to a simmer, and allow to slow cook for 1 hour more. Serve warm and enjoy!"},{"recipe_directions":"Use any ground meat you prefer."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"462\nCalories\n\n\n22g \nFat\n\n\n43g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641599-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FpYYg4UseLKYtWO1avqVI67zHAE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(601x0:603x2):format(webp)/4946322-81bb5ca73e10463aa8d04c701da7afe7.jpg"
@@ -784,59 +1089,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279048/persian-rice-with-potato-tahdig/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Persian Rice with Potato Tahdig</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups basmati rice\n\n\n1 teaspoon salt\n\n\n2 tablespoons cooking oil\n\n\n1  potato, sliced into 1/4-inch rounds"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups basmati rice\n\n\n1 teaspoon salt\n\n\n2 tablespoons cooking oil\n\n\n1  potato, sliced into 1/4-inch rounds'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse and drain rice 2 times."},{"recipe_directions":"Bring a large pot of water to a boil. Add rice and salt; cook for 6 minutes. Drain in a colander. Rinse rice and drain again."},{"recipe_directions":"Put oil in the bottom of the pot and place potato slices in a single layer over top. Pour cooked rice on top of potato slices, cover, and cook over low heat until rice and potatoes are tender, 20 to 30 minutes."},{"recipe_directions":"Invert carefully onto a serving plate so sliced potatoes are on top of rice."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n5g \nFat\n\n\n55g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641606-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -848,59 +1149,55 @@
 Ash-e Anar (Persian Pomegranate Soup)</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263420/ash-e-anar-persian-pomegranate-soup/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Ash-e Anar (Persian Pomegranate Soup)</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons olive oil\n\n\n2 large sweet onions, chopped\n\n\n6 cloves garlic, minced\n\n\n¾ cup yellow split peas\n\n\n2 quarts chicken stock\n\n\n2 tablespoons ground black pepper\n\n\n1 tablespoon ground turmeric\n\n\n2 ¼ teaspoons mild paprika\n\n\n¾ teaspoon cayenne pepper\n\n\n¼ teaspoon ground fennel seeds\n\n\n1  cinnamon stick"},{"recipe_ingredients":"1 ½ pounds ground lamb\n\n\n¼ cup minced onion\n\n\n2 tablespoons minced fresh mint\n\n\n2 tablespoons minced fresh parsley\n\n\n1 clove garlic, minced\n\n\n1 cup basmati rice\n\n\n½ cup minced fresh parsley\n\n\n½ cup minced fresh mint\n\n\n¼ cup pomegranate molasses\n\n\n1 tablespoon honey"},{"recipe_ingredients":"2 cups pomegranate seeds\n\n\n¼ cup heavy whipping cream, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons olive oil\n\n\n2 large sweet onions, chopped\n\n\n6 cloves garlic, minced\n\n\n¾ cup yellow split peas\n\n\n2 quarts chicken stock\n\n\n2 tablespoons ground black pepper\n\n\n1 tablespoon ground turmeric\n\n\n2 ¼ teaspoons mild paprika\n\n\n¾ teaspoon cayenne pepper\n\n\n¼ teaspoon ground fennel seeds\n\n\n1  cinnamon stick'}, {'recipe_ingredients': '1 ½ pounds ground lamb\n\n\n¼ cup minced onion\n\n\n2 tablespoons minced fresh mint\n\n\n2 tablespoons minced fresh parsley\n\n\n1 clove garlic, minced\n\n\n1 cup basmati rice\n\n\n½ cup minced fresh parsley\n\n\n½ cup minced fresh mint\n\n\n¼ cup pomegranate molasses\n\n\n1 tablespoon honey'}, {'recipe_ingredients': '2 cups pomegranate seeds\n\n\n¼ cup heavy whipping cream, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a heavy stockpot over medium-high heat. Add chopped onions and saute until soft, about 5 minutes. Add garlic and cook until browned, about 2 minutes. Stir in split peas; cook until peas take on a bit of color, about 1 minute."},{"recipe_directions":"Pour chicken stock into the pot. Add pepper, turmeric, paprika, cayenne, fennel seeds, and cinnamon stick. Bring soup to a boil. Reduce heat and simmer until peas are tender, about 20 minutes."},{"recipe_directions":"While soup is simmering, prepare meatballs. Mix lamb, minced onion, mint, parsley, and garlic together. Form into walnut-sized meatballs. Drop meatballs into the simmering soup. Cook until no longer pink in the center, about 10 minutes."},{"recipe_directions":"Discard cinnamon stick from the soup. Add basmati rice, parsley, mint, pomegranate molasses, and honey. Cook until rice softens, about 20 minutes."},{"recipe_directions":"Ladle soup into bowls and garnish with pomegranate seeds and cream."},{"recipe_directions":"Add pomegranate seeds to each bowl individually, not to the stockpot, as they will soften rapidly and lose their red color."},{"recipe_directions":"Other herbs you could use instead of parsley or mint: celery leaves, cilantro, chives, or green onion."},{"recipe_directions":"You can substitute or leave out meatballs for a vegetarian option. Use vegetable broth instead of chicken stock."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Split Pea Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"514\nCalories\n\n\n23g \nFat\n\n\n57g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641611-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -912,59 +1209,55 @@
 Chelo Kabob (Persian Rice with Chicken Kabob)</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279050/chelo-kabob-persian-rice-with-chicken-kabob/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Chelo Kabob (Persian Rice with Chicken Kabob)</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n6 \n\n\nYield:\n12 kabobs"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground chicken\n\n\n1 small onion, diced\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt, or more to taste\n\n\n¾ teaspoon ground turmeric, divided\n\n\n½ teaspoon saffron, divided\n\n\n⅛ teaspoon cayenne pepper\n\n\n2 tablespoons warm water\n\n\n3 cups water\n\n\n2  cardamom pods, bruised\n\n\n2 cups long-grain basmati rice\n\n\n3 tablespoons butter, divided\n\n\n4 medium tomatoes, cut lengthwise into quarters\n\n\n1 medium onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground chicken\n\n\n1 small onion, diced\n\n\n2 teaspoons ground black pepper\n\n\n1 teaspoon salt, or more to taste\n\n\n¾ teaspoon ground turmeric, divided\n\n\n½ teaspoon saffron, divided\n\n\n⅛ teaspoon cayenne pepper\n\n\n2 tablespoons warm water\n\n\n3 cups water\n\n\n2  cardamom pods, bruised\n\n\n2 cups long-grain basmati rice\n\n\n3 tablespoons butter, divided\n\n\n4 medium tomatoes, cut lengthwise into quarters\n\n\n1 medium onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken, diced onion, black pepper, salt, 1/4 teaspoon turmeric, 1/4 teaspoon saffron, and cayenne in a bowl. Shape mixture into long, sausage-like kabob shapes, or shape around skewers and put aside in the refrigerator."},{"recipe_directions":"Put the leftover saffron minus a pinch in 2 tablespoons warm water so that it lets out its color."},{"recipe_directions":"Bring 3 cups water and cardamom pods to a boil; add rice, reduce heat, and let simmer until tender and water has been absorbed, 20 to 25 minutes, making sure not to overcook or undercook. Drain out any remaining starch water."},{"recipe_directions":"Place a pot over low heat. Add 1 tablespoon butter, remaining turmeric, and reserved pinch of saffron; saute a bit then add the rice on top to dry out the excess water. Drizzle the saffron water on top and add 1 tablespoon butter. Cover and let simmer until the rice is fluffy, about 5 minutes."},{"recipe_directions":"Melt remaining butter in a skillet over medium-high heat. Fry kabobs in the hot oil until they are no longer pink in the centers, 5 to 7 minutes, flipping as needed. Place tomatoes and chopped onion on top and cover. Cook until tomatoes soften and release their juices (this helps it from getting too dry), about 5 minutes. Serve with rice."},{"recipe_directions":"You can use ground beef instead of chicken, oil instead of butter, and either saffron powder or dried threads."},{"recipe_directions":"If you plan on cooking them later you can also freeze them after shaping."},{"recipe_directions":"The shape determines the quantity but you should be able to make at least a dozen if not more."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"469\nCalories\n\n\n9g \nFat\n\n\n56g \nCarbs\n\n\n41g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641615-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DqpbQu8f6dXFOSZrFbHEDo8EX_I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7816946-2000-961a2c59ed1d485ebcb4bf0c8bebfd45.jpg"
@@ -976,59 +1269,55 @@
 8 Persian Rice Recipes That Marry Aromatic Flavor with Irresistible Texture</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/persian-rice-recipes/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>8 Persian Rice Recipes That Marry Aromatic Flavor with Irresistible Texture</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Persians are a people known for their rice — and that renown is well deserved. Pillowy soft grains of rice and a crunchy tahdig layer are the trademarks of Persian rice, the beloved rice dish that combines aromatic flavor and irresistible texture. Check out our collection of Persian rice recipes, including bright and herby sabzi polo, lubia polo, a textural delight, and, of course, crispy, buttery tahdig."},{"recipe_directions":"This recipe by Chef John breaks down the processes that yield Persian rice's signature qualities: fluffy grains, the tahdig layer, and some bonus potato tahdig nestled on top. It's not quite how my grandmother makes it, but it's definitely worth trying."},{"recipe_directions":"Packed with fresh herbs and lima beans, sabzi polo gets its name from its green hue. This dish is famously paired with fried fish (mahi sorkh shodeh) on Nowruz, the Persian new year, but it also works well with chicken or salmon. Don't pair this with a khoresht stew unless you want to break the Iranian dining code."},{"recipe_directions":"Kalam polo, a rice dish made with beef, vegetables, and herbs, is a traditional and aromatic Persian dish. To make a vegetarian version, simply omit the beef. Pair it with shirazi salad to round it out as a meal."},{"recipe_directions":"This one-pot rice dish is a weeknight staple in many Persian households. For a more authentic version of this dish, omit the jalapenos and replace the curry with saffron and turmeric."},{"recipe_directions":"\"Reshteh polo is a fragrant rice and noodle dish often served at Nowruz (Iranian New Year) for lunch or dinner,\" says creator and Bottom of the Pot author Naz Deravian. \"You can purchase the roasted noodles from Iranian markets or online. The noodles in this dish symbolize good wishes for the new year.\""},{"recipe_directions":"\"This is one of my husband's favorite foods! Good with some plain yogurt too,\" says community member Donnell Shariat. \"The recipe takes practice but pays off since the procedure is a common one for Persian Rice recipes.\""},{"recipe_directions":"Bahgali polo, which translates to \"beans and rice,\" sounds simple, but the dish goes far beyond those two ingredients. It's traditionally made with lamb and gets much of its robust taste from dried dill. This recipe is easily adaptable to suit a different type of meat or even no meat at all, but the one ingredient you can't omit is the yogurt."},{"recipe_directions":"Bottom of the Pot author Naz Deravian's sabzi polo recipe includes some clever damage control in the form of a lavash tahdig, which helps keep the rice's herbs from burning. For best results, use a long-grain basmati rice."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641619-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ng6SbxaFHezzad_IuxFbq-xtJqY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x1319:601x1321):format(webp)/Shadis-Berenj-va-Morgh-Ba-Zardchoobeh-One-Pot-Turmeric-Chicken-and-Rice-2000-f08cea9c4e414ef3b5385631323637a1.jpg"
@@ -1042,59 +1331,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8339194/shadis-one-pot-turmeric-chicken-and-rice/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Shadi's One-Pot Turmeric Chicken and Rice</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n1 ½ pounds boneless, skinless chicken breasts\n\n\n1 large onion, chopped\n\n\n6 cloves garlic, minced\n\n\n1 teaspoon ground turmeric\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups basmati rice\n\n\n1 medium carrot, chopped (Optional)\n\n\n3 tablespoons fresh lemon juice\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n1 ½ pounds boneless, skinless chicken breasts\n\n\n1 large onion, chopped\n\n\n6 cloves garlic, minced\n\n\n1 teaspoon ground turmeric\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups basmati rice\n\n\n1 medium carrot, chopped (Optional)\n\n\n3 tablespoons fresh lemon juice\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put the water, chicken breasts, onion, garlic, turmeric, salt, and pepper in a 4-quart pot. Bring to a boil over medium-high heat. Reduce heat to medium, cover, and simmer until chicken is cooked through, 20 to 25 minutes. An instant-read thermometer inserted near the bone should read 165 degrees F (74 degrees C). Remove chicken from pot and set aside."},{"recipe_directions":"Rinse rice in a sieve under running water a few times to get rid of excess starch."},{"recipe_directions":"Add rice and carrot to the broth in the pot. Bring to a simmer; reduce heat to medium-low; and simmer, covered, until rice is tender, about 20 minutes."},{"recipe_directions":"Meanwhile, shred chicken using two forks."},{"recipe_directions":"Once rice is cooked, fluff it using a fork. Gently mix in shredded chicken and drizzle with lemon juice. Taste and add more salt as needed. Sprinkle with parsley."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"One-Pot Meal Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"364\nCalories\n\n\n2g \nFat\n\n\n53g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641623-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DUk_BSArvvd_Mk39tIatZX_BO50=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4480119-4f323c9326d54184b5f9c460bb3b1060.jpg"
@@ -1105,59 +1390,55 @@
 Wheat Flour Halva</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257258/wheat-flour-halva/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Wheat Flour Halva</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n16 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n46 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups water\n\n\n1 cup white sugar\n\n\n¼ cup rose water\n\n\n⅓ teaspoon ground cardamom\n\n\n1 pinch saffron\n\n\n½ cup butter\n\n\n1 ½ cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups water\n\n\n1 cup white sugar\n\n\n¼ cup rose water\n\n\n⅓ teaspoon ground cardamom\n\n\n1 pinch saffron\n\n\n½ cup butter\n\n\n1 ½ cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and sugar to a boil in a small pot, stirring until sugar dissolves into a syrup. Stir rose water, cardamom, and saffron into the syrup. Reduce heat to low; cover to keep syrup hot."},{"recipe_directions":"Melt butter in a large saucepan over low heat. Stir in flour until mixture is a smooth paste, about 1 minute. Cook, stirring constantly, until paste turns brown, 10 to 15 minutes."},{"recipe_directions":"Remove flour mixture from heat. Whisk in hot syrup gradually until syrup is completely absorbed and mixture is the consistency of a smooth, soft paste, at least 4 minutes."},{"recipe_directions":"Spread mixture in a shallow bowl. Cool to room temperature, about 20 minutes."},{"recipe_directions":"Vegetable oil can be used instead of butter."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"284\nCalories\n\n\n12g \nFat\n\n\n43g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641627-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YhoveT9IiBdXefZqVgQQsYV_6hk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/7797776-60b0e213eb0f41cfb922af96be758b8e.jpg"
@@ -1169,59 +1450,55 @@
 15 Recipes for Nowruz, the Persian New Year</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/persian-new-year-recipes/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>15 Recipes for Nowruz, the Persian New Year</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Nowruz, also known as Iranian or Persian New Year, is the celebration of the vernal equinox. It is a holiday that begins exactly at the moment of the equinox — the first day of Spring — and lasts for 13 days. It's a joyous celebration of nature, new life, and new beginnings. There are many symbolic traditions and rituals that are observed during Nowruz, and naturally food plays a major role in the festivities. The customary dishes prepared during Nowruz include sabzi polo ba mahi (green herb rice and fried fish), kookoo sabzi (fresh herb frittata), and reshteh polo (noodle rice). The ingredients used in these dishes — such as a bounty of fresh green herbs, eggs, and noodles — symbolize spring, nature and well wishes for the new year. Iranians typically have a love affair with cooking with an abundance of fresh green herbs and it is on full display at a Nowruz feast with these delicious recipes."},{"recipe_directions":"Sabzi Polo is traditionally served for Nowruz dinner or lunch. 'Sabz' in Persian means green and the abundance of fresh green herbs in this dish symbolizes new life and rebirth. Sabzi polo is typically served with a fish dish like mahi sorkh shodeh (fried fish) and mahi doodi (smoked fish)."},{"recipe_directions":"A Nowruz meal would be incomplete without fish, and mahi sorkh shodeh (fried fish) often accompanies sabzi polo (green herb rice). Fish symbolize life and fertility. White fish is traditionally prepared, but any kind of fish is welcome at the table."},{"recipe_directions":"Kookoo sabzi is the embodiment of the spirit of Nowruz. This particular kookoo (Persian-style frittata) is packed with just about every fresh green herb in the Iranian crisper. The green herbs represent new life and the eggs in this dish symbolize fertility. Serve kookoo sabzi with sabzi polo (green herb rice) and mahi sorkh shodeh (fried fish), or enjoy with bread."},{"recipe_directions":"The noodles in this fragrant rice dish represent well wishes and hopes for the new year. Reshteh polo is served for Nowruz lunch or dinner. You can purchase the roasted Persian noodles from Iranian markets or online."},{"recipe_directions":"Smoked fish is another traditional fish dish that graces a Nowruz feast. Although smoked white fish is traditional, many families serve a smoked fish of their choice like this smoked steelhead trout. Serve the smoked fish alongside sabzi polo (green herb rice) with plenty of Seville orange or lime wedges to squeeze over."},{"recipe_directions":"On the eve of the last Wednesday of the year, Iranians gather together to celebrate Chahar Shanbeh Suri. Small bonfires are lit and people jump over the fire to bid farewell to the old year and welcome a new year. Aash-e reshteh is a hearty fresh herb, bean and noodle soup which is typically enjoyed on this night. The noodles in the soup are said to represent the many winding paths that life spreads before us."},{"recipe_directions":"An Iranian meal would be incomplete without the presence of a fresh green herb and cheese platter. Fresh green herbs are enjoyed alongside every meal. Bread, cheese, and herbs also represent abundance and prosperity."},{"recipe_directions":"At the Iranian table dishes are all served family-style. A bowl of maast-o khiar is ever present to help cut through the more rich dishes. You can also serve maast-o khiar as an appetizer with a side of bread, crackers, chips, or veggies."},{"recipe_directions":"A tangy tomato, cucumber, and onion salad is a mainstay of an Iranian meal. Serve salad shirazi alongside a Nowruz feast for a fresh and crisp bite."},{"recipe_directions":"This Northern Iranian marinated olive dish makes for a great appetizer or serve alongside the Nowruz meal. The combination of walnuts, pomegranate molasses, and spices make these olives irresistible."},{"recipe_directions":"Sofreh Haft Seen is the decorative Nowruz table. It is set up with seven symbolic items starting with the Persian letter \"seen,\" or \"s.\" Desserts are also included on the Haft Seen to represent sweetness in the new year. Baghlava is one of the traditional sweets served for Nowruz."},{"recipe_directions":"These Persian-style marzipan are shaped and named after mulberries. They are fragrant with the scent of rose water and very simple to prepare. Serve tut with a cup of tea."},{"recipe_directions":"Walnut cookies are typically included on the Sofreh Haft Seen. They are perfumed with rose water and cardamom and are a perfect gluten-free treat."},{"recipe_directions":"The 13th and final day of Nowruz is called Sizdah Bedar. It's considered unlucky to be indoors on this day and people head to parks and the outdoors and picnic in nature. Salad olivieh is considered the quintessential picnic sandwich. Make a batch and enjoy it with your favorite bread."},{"recipe_directions":"This refreshing honey and vinegar drink is infused with fragrant mint. Sharbat-e Sekanjebin is touted for its healing benefits of cooling and restoring balance to the body. Serve Sekanjebin to cool and sweeten palates. It also makes for a great Sizdah Bedar picnic drink."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641635-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CiwPQlxsPlbt0eYoiYyidSOF7CI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2497772-068233c5bc3b43fa9d2ecad01c40a1d3.jpg"
@@ -1234,59 +1511,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/112336/strawberry-ginger-and-mint-sekanjabin/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Strawberry, Ginger and Mint Sekanjabin</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 55 mins\n\n\nServings:\n30 \n\n\nYield:\n6 cups of syrup"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups white sugar\n\n\n2 cups water\n\n\n12 ounces fresh or frozen strawberries, chopped\n\n\n1 cup chopped fresh mint\n\n\n½ cup sliced fresh ginger\n\n\n2  lemons, peeled and juiced\n\n\n1 cup white balsamic vinegar (not distilled vinegar)"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups white sugar\n\n\n2 cups water\n\n\n12 ounces fresh or frozen strawberries, chopped\n\n\n1 cup chopped fresh mint\n\n\n½ cup sliced fresh ginger\n\n\n2  lemons, peeled and juiced\n\n\n1 cup white balsamic vinegar (not distilled vinegar)'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring the sugar and water to a boil over high heat. Boil until the sugar has dissolved, then stir in the strawberries, mint, ginger, lemon peels, and lemon juice. Return to a boil, then reduce heat to medium and simmer for 20 minutes. Remove from heat, and stir in the white balsamic vinegar."},{"recipe_directions":"Allow the syrup to stand overnight at room temperature, then strain out the fruits with a fine sieve. Store at room temperature in a sterile container."},{"recipe_directions":"To use, stir 1 part syrup into 4 to 6 parts water; serve cold with ice if desired."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641639-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uwhw36--QL-twEcqQmQwbB8gFSY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7797761-7d89805a9e634423abc873d6e278b384.jpg"
@@ -1299,59 +1572,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279193/kookoo-sabzi-fresh-herb-frittata/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kookoo Sabzi (Fresh Herb Frittata)</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup fresh barberries\n\n\n1 bunch Swiss chard, stems removed\n\n\n1 bunch fresh parsley, tough stems trimmed\n\n\n1 bunch fresh cilantro, tough stems trimmed\n\n\n1 bunch fresh dill, tough stems trimmed\n\n\n1 bunch green onions, finely chopped\n\n\n½ cup walnuts, roughly chopped\n\n\n1 clove garlic, chopped\n\n\n1 ½ teaspoons kosher salt (such as Diamond Crystal®)\n\n\n1 teaspoon dried fenugreek leaves\n\n\n1 teaspoon dried tarragon\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon ground saffron (Optional)\n\n\n¼ teaspoon ground Damask rose petals\n\n\n¼ teaspoon ground black pepper\n\n\n6 large eggs, or more as needed\n\n\n⅓ cup olive oil\n\n\n2 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup fresh barberries\n\n\n1 bunch Swiss chard, stems removed\n\n\n1 bunch fresh parsley, tough stems trimmed\n\n\n1 bunch fresh cilantro, tough stems trimmed\n\n\n1 bunch fresh dill, tough stems trimmed\n\n\n1 bunch green onions, finely chopped\n\n\n½ cup walnuts, roughly chopped\n\n\n1 clove garlic, chopped\n\n\n1 ½ teaspoons kosher salt (such as Diamond Crystal®)\n\n\n1 teaspoon dried fenugreek leaves\n\n\n1 teaspoon dried tarragon\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon ground saffron (Optional)\n\n\n¼ teaspoon ground Damask rose petals\n\n\n¼ teaspoon ground black pepper\n\n\n6 large eggs, or more as needed\n\n\n⅓ cup olive oil\n\n\n2 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak barberries in water to cover for 10 minutes. Drain."},{"recipe_directions":"Pulse Swiss chard, parsley, cilantro, and dill together in a food processor, working in batches, until finely chopped but not mushy. Place into a large bowl with barberries, walnuts, garlic, salt, fenugreek, tarragon, turmeric, cinnamon, saffron, rose petals, and black pepper. Stir to combine. Add 6 eggs and mix well to combine; the batter should have the consistency of thick yogurt or soft serve ice cream. If it doesn't, add more eggs, 1 at a time, and mix to combine."},{"recipe_directions":"Heat 1/3 cup olive oil in a large (10- or 12-inch) nonstick frying pan over medium heat. Add batter and spread evenly. Cover with a lid and cook kookoo until oil starts to bubble along the sides, about 3 minutes. Cover and cook until it starts to set and the bottom is browned, 12 to 15 minutes."},{"recipe_directions":"Cut the kookoo evenly into 4 large pieces and use a wide spatula to flip each piece over, 1 at a time. Drizzle 2 tablespoons oil in between the cuts, reduce heat to medium-low, and cook, uncovered, until cooked through, about 10 minutes. Cut into desired pieces and serve warm or at room temperature."},{"recipe_directions":"This kookoo is prepared traditionally on the stovetop which is the best way to brown the outside, but you can also bake it. Pour 1/3 cup of the olive oil in a 9x13-inch oven-safe dish. Swirl the oil around to cover and up the sides. Heat the oil in the oven for 1 minute. Pour the batter in and spread evenly. Bake until just set, about 30 minutes. Cut into thirds and drizzle the remaining oil in between the cuts. Bake for an additional 15 to 20 minutes."},{"recipe_directions":"If you prep the greens ahead of time, like the night before, then you can whip up a batch quickly and without much fuss. You can chop them finely with a knife instead of using a food processor, if preferred."},{"recipe_directions":"You can use spinach instead of Swiss chard, 1/3 cup dried cranberries instead of barberries, and fresh fenugreek and tarragon instead of dried."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Frittata Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n21g \nFat\n\n\n7g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641644-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0_Q6IPlqjvTyfLy1HVeNkMhG7uc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1647190096Shirazi20Salad-2000-6c1bd66d0e3945958e0eee8624d7c3aa.jpeg"
@@ -1363,59 +1632,55 @@
 Shirazi Salad</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8369015/shirazi-salad/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Shirazi Salad</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nChill Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 medium  firm Roma tomatoes, finely diced\n\n\n1 medium English cucumber, finely diced\n\n\n½ cup diced red onion\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 tablespoon dried mint"},{"recipe_ingredients":"¼ cup freshly squeezed lime juice\n\n\n3 tablespoons extra-virgin olive oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon sumac (Optional)\n\n\n1 sprig fresh mint (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 medium  firm Roma tomatoes, finely diced\n\n\n1 medium English cucumber, finely diced\n\n\n½ cup diced red onion\n\n\n1 tablespoon chopped fresh cilantro\n\n\n1 tablespoon dried mint'}, {'recipe_ingredients': '¼ cup freshly squeezed lime juice\n\n\n3 tablespoons extra-virgin olive oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon sumac (Optional)\n\n\n1 sprig fresh mint (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, English cucumber, onion, and cilantro in a large bowl. Sprinkle with mint and transfer to the refrigerator for flavors to meld, at least 30 minutes."},{"recipe_directions":"Whisk together lime juice, olive oil, salt, pepper, and sumac in a small bowl until well combined. Drizzle dressing over the salad right before serving. Toss well to combine, and garnish with fresh mint leaves."},{"recipe_directions":"Add the dressing right before serving to avoid the salad getting soggy."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641650-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1429,59 +1694,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256942/persian-eggplant-stew/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Persian Eggplant Stew</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs 46 mins\n\n\nTotal Time:\n 3 hrs 1 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon salt, divided\n\n\n5  Japanese eggplants, peeled, tops left intact\n\n\n1 cup vegetable oil\n\n\n1 tablespoon vegetable oil\n\n\n1 large white onion, chopped\n\n\n1 ½ teaspoons chopped garlic\n\n\n1 pound cubed stew meat\n\n\n1 cube beef bouillon\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon saffron\n\n\n½ (6 ounce) can tomato paste\n\n\n2 cups water\n\n\n1 (15 ounce) can tomato sauce"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon salt, divided\n\n\n5  Japanese eggplants, peeled, tops left intact\n\n\n1 cup vegetable oil\n\n\n1 tablespoon vegetable oil\n\n\n1 large white onion, chopped\n\n\n1 ½ teaspoons chopped garlic\n\n\n1 pound cubed stew meat\n\n\n1 cube beef bouillon\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon saffron\n\n\n½ (6 ounce) can tomato paste\n\n\n2 cups water\n\n\n1 (15 ounce) can tomato sauce'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sprinkle 2 teaspoons salt over eggplant."},{"recipe_directions":"Heat oil in a large saucepan over medium-high heat. Cook eggplants until soft and browned, about 3 minutes per side. Drain on paper towels."},{"recipe_directions":"Heat 1 tablespoon oil in a large saucepan over medium heat. Cook and stir onion and garlic until softened, about 5 minutes. Stir in stew meat, beef bouillon, cumin, and saffron; cook meat until browned, about 5 minutes. Stir in tomato paste until well mixed."},{"recipe_directions":"Pour water and tomato sauce into the saucepan. Reduce heat to low and cover; cook, stirring occasionally, until sauce is reduced by half, about 2 hours 20 minutes. Stir in eggplants. Cook until heated through, about 10 minutes."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of salt. The actual amount of salt consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"523\nCalories\n\n\n26g \nFat\n\n\n53g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641659-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1493,59 +1754,55 @@
 Vegetarian Ghormeh Sabzi</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279042/vegetarian-ghormeh-sabzi/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Vegetarian Ghormeh Sabzi</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil, or as needed\n\n\n1 large onion, minced\n\n\n1 ½ teaspoons ground turmeric\n\n\n  soy sauce, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 bunches fresh parsley, chopped\n\n\n1 bunch green onions, chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n3 ½ tablespoons dried fenugreek leaves (kasoori methi)\n\n\n2 cups water, or more as needed\n\n\n1  lemon, seeded and cut into 8 wedges\n\n\n1 (15 ounce) can kidney beans, rinsed and drained"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil, or as needed\n\n\n1 large onion, minced\n\n\n1 ½ teaspoons ground turmeric\n\n\n  soy sauce, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 bunches fresh parsley, chopped\n\n\n1 bunch green onions, chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n3 ½ tablespoons dried fenugreek leaves (kasoori methi)\n\n\n2 cups water, or more as needed\n\n\n1  lemon, seeded and cut into 8 wedges\n\n\n1 (15 ounce) can kidney beans, rinsed and drained'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a pot over medium-high heat. Saute onion in the hot oil until golden, 7 to 10 minutes. Mix in turmeric until onion is coated. Add soy sauce, salt, and pepper. Stir in parsley, green onions, and cilantro, adjusting soy sauce to taste. Cook and stir until herbs are sufficiently wilted, 3 to 4 minutes. Add fenugreek and saute until incorporated."},{"recipe_directions":"Pour in water and add lemon slices. Reduce heat to medium-low and let simmer, uncovered, stirring occasionally and adding more water if necessary, about 20 minutes, adding kidney beans about 10 minutes before serving; sooner than this might make them mushy."},{"recipe_directions":"Don't skip the fenugreek, this herb has the flavor that defines this dish."},{"recipe_directions":"If you can find them and want to use the traditional recipe, use 3 to 4 dried Persian limes instead of lemon."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"295\nCalories\n\n\n15g \nFat\n\n\n35g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641664-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4Y0XrT9B9GQLnaXCQva7IUT9rsI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/GettyImages-1280180516-2000-32d6d69d2f664b769c0d82587f95d9fc.jpg"
@@ -1557,59 +1814,55 @@
 An Introduction to Persian Cuisine</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/introduction-to-persian-cuisine/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>An Introduction to Persian Cuisine</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"When people talk about Persian food, they usually throw around words like \"aromatic\" and \"herby.\" Those descriptors are absolutely true, but they don't even begin to encapsulate Persian cuisine. You definitely don't have to mysticize Persian food to understand it: our stews are squishy and comforting, our rice is fluffy with a coveted crispy layer, and we love our yogurt so much we even drink it. Cooking Persian food seems daunting, and — let's face it — you'll probably never make anything as good as a Persian grandmother, but with some practice, patience, and determination, you can become a confident Persian cook."},{"recipe_directions":"Persian rice is far more than a mealtime staple: it's an artform. Tahdig, the caramelized, buttery layer that translates as \"bottom of the pot,\" is the best-known element of Persian rice, but it's not the only one that deserves recognition. Persian rice has an almost pillowy soft texture thanks to the great care that comes in preparing it. Before it even enters a boiling pot of water, it's already been washed at least three times to remove the starch and soaked for at least 30 minutes. Additionally, Persian rice is never \"just plain,\" and even the simplest rice recipe involves a fair amount of technique and seasoning, most notably saffron and salt. Persian rice dishes famously incorporate a variety of spices, vegetables, herbs, and even fruits, especially barberries or sour cherries."},{"recipe_directions":"Persian Recipes to Try:"},{"recipe_directions":"Squishy food reigns supreme in Persian cuisine, and no dish better proves that than khoresh. Khoresh's name comes from the Farsi verb for \"to eat\" and translates as \"meal.\" It's a vague title, but given the variety of khoresh dishes, the name fits. For example, khoresh bademjan (Persian eggplant stew) and ghormeh sabzi (Persian herb stew) are vastly different, but still fit into the khoresh category. Khoresh dishes are usually referred to as stews thanks to their cooking method and texture."},{"recipe_directions":"Koresh Recipes to Try:"},{"recipe_directions":"When Persian cuisine comes to mind, kebabs are likely the first foods conjured. Kebabs are standard Persian restaurant fare since they're made for crowds and don't need to spend time simmering. The most popular kebabs are barg (steak or lamb), jujeh (chicken), and koobideh (ground beef and/or lamb) — just try to pick a single favorite. But meat makes appearances in other Persian dishes, too, especially khoresh and soups like abgusht (which translates as \"meat water\")."},{"recipe_directions":"Persian Meat Recipes to Try:"},{"recipe_directions":"Traditional Persian desserts get their sweetness from floral notes, most notably rose and orange blossom, and usually incorporate dried fruit, nuts, or rice and a well-rounded array of spices. There's a strong sweet factor, but it's more of a natural sweetness rather than artificial or saccharine. Sholeh zard, Persian rice pudding, for example, gets its flavor from rosewater and saffron (which also gives it that unmistakable hue). We're also big on cream: bastani, rosewater and saffron ice cream, gets an extra touch of decadence from heavy cream, and every Persian household keeps a stash of French-style cream puffs on hand."},{"recipe_directions":"Persian Shirin Recipes to Try:"},{"recipe_directions":"Explore More Persian Recipes:"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Global Kitchen"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641673-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1cmFNuEhtfkKGXopTZGE8pndl74=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8815-856fad791c744317aaecd2701c66d0ef.jpg"
@@ -1622,59 +1875,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85118/pomegranate-stew-with-chicken-khoresh-fesenjan/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Pomegranate Stew with Chicken (Khoresh Fesenjan)</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 ½ pounds chicken legs, cut up\n\n\n1  white onion, thinly sliced\n\n\n½ pound walnuts, toasted and finely ground in a food processor\n\n\n1 teaspoon salt\n\n\n4 cups pomegranate juice\n\n\n½ teaspoon cardamom (Optional)\n\n\n2 tablespoons sugar (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 ½ pounds chicken legs, cut up\n\n\n1  white onion, thinly sliced\n\n\n½ pound walnuts, toasted and finely ground in a food processor\n\n\n1 teaspoon salt\n\n\n4 cups pomegranate juice\n\n\n½ teaspoon cardamom (Optional)\n\n\n2 tablespoons sugar (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large skillet over medium heat. Place chicken and onions in skillet, and cook 20 minutes, stirring occasionally. Mix in pureed walnuts, salt, pomegranate juice, and cardamom. Bring to a boil. Reduce heat to low, cover, and simmer for 1 1/2 hours, stirring occasionally. (If the sauce becomes too thick, stir in 1/4 cup warm water.) Mix in sugar, adjust seasoning, and simmer 30 minutes more."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"785\nCalories\n\n\n39g \nFat\n\n\n95g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641680-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1686,59 +1935,55 @@
 Zereshk Polo (Persian Barberry Rice)</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279049/zereshk-polo-persian-barberry-rice/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Zereshk Polo (Persian Barberry Rice)</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 50 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups uncooked white rice\n\n\n2 pinches saffron, divided\n\n\n1 pinch white sugar\n\n\n1 pound chicken, cut into pieces\n\n\n7 tablespoons olive oil, divided\n\n\n1 tablespoon advieh (spice blend)\n\n\n1 teaspoon garlic paste\n\n\n1 teaspoon salt\n\n\n1 large potato, sliced\n\n\n4 tablespoons butter, divided\n\n\n1 cup fresh barberries\n\n\n1 tablespoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups uncooked white rice\n\n\n2 pinches saffron, divided\n\n\n1 pinch white sugar\n\n\n1 pound chicken, cut into pieces\n\n\n7 tablespoons olive oil, divided\n\n\n1 tablespoon advieh (spice blend)\n\n\n1 teaspoon garlic paste\n\n\n1 teaspoon salt\n\n\n1 large potato, sliced\n\n\n4 tablespoons butter, divided\n\n\n1 cup fresh barberries\n\n\n1 tablespoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Soak rice in water to cover for at least 30 minutes."},{"recipe_directions":"Meanwhile, place 1 pinch saffron and 1 pinch sugar in a mortar and grind to a fine power. Transfer to a cup and fill 3/4 full with hot water. Set aside."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Wash the chicken pieces, pat dry, and place in a deep baking tray. Coat with 2 tablespoons olive oil, advieh, garlic paste, and remaining saffron. Cover with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until chicken is no longer pink, about 1 hour."},{"recipe_directions":"While the chicken is baking, drain the soaked rice, add to a pot, and cover with 4 cups of water. Add 2 tablespoons of olive oil if desired to stop the grains from sticking to each other and 1 teaspoon salt. Boil the rice until tender yet firm to the bite, 10 to 15 minutes. Drain in a colander."},{"recipe_directions":"Put the pot back on the stove and add remaining oil. Lay the sliced potato in the base (to protect the rice, but also to create a delicious edible crust of rice and potato). Top with the drained rice and cover with a lid. Cook until the rice begins to steam, 3 to 5 minutes. Turn the heat to low, and leave to steam, 25 to 30 minutes."},{"recipe_directions":"Heat 1/2 of the butter in a frying pan and add barberries. Saute for 3 to 4 minutes; add 1 tablespoon sugar and 2 tablespoons of the saffron water. Stir briefly, then remove from heat. Place a layer of rice on a serving platter, followed by a sprinkling of barberries and a little saffron water. Keep layering. Leave some barberries for the top. Arrange the chicken quarters around or on the top of the platter then spoon the saffron rice and barberries on top."},{"recipe_directions":"Advieh is a blend of cinnamon, nutmeg, cardamom, cumin, and rose petals."},{"recipe_directions":"Sometimes, in some areas, you don't get barberries, as I didn't get this time while making this pulao. I used raisins instead of barberries, and raisins did a great job!"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"698\nCalories\n\n\n33g \nFat\n\n\n78g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641686-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1752,59 +1997,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263421/persian-tahdig-rice/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Persian Tahdig Rice</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 cups"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon saffron threads\n\n\n½ teaspoon white sugar (Optional)\n\n\n4 tablespoons boiling water\n\n\n2 cups basmati rice\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n2 tablespoons butter, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon saffron threads\n\n\n½ teaspoon white sugar (Optional)\n\n\n4 tablespoons boiling water\n\n\n2 cups basmati rice\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n2 tablespoons butter, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grind saffron threads with sugar in a mortar and pestle. Transfer to a bowl and dissolve in boiling water. Set aside to soak."},{"recipe_directions":"Wash starch from the rice by rinsing it in a nonstick 4-quart pot. Rinse 3 or 4 times in lukewarm water until water runs clear. Fill the pot 3/4 full with cold water, covering the rice. Bring to a boil. Add olive oil and cook until rice is soft on the outside and still crunchy in the middle, 10 to 15 minutes."},{"recipe_directions":"Drain rice and rinse with cool water. Set aside. Rinse any excess rice starch out of the pot."},{"recipe_directions":"Melt butter in the clean, dry pot. Mound rice over the butter; add enough water to reach 1/3 of the height of the rice. Sprinkle salt over the rice. Wrap the lid with a kitchen towel and cover the pot to seal tightly. Simmer over medium heat until all water is absorbed and a crispy crust starts to form on the bottom, about 10 minutes."},{"recipe_directions":"Fluff the rice with a fork while turning it out on a plate. Measure 1 cup rice and mix with the saffron water. Scatter saffron rice over plain rice. Detach the layer of crust, or 'tahdig', from the bottom of the pot and serve in a separate dish as a special treat."},{"recipe_directions":"Instead of butter, you can use 2 to 3 tablespoons olive oil and 1/2 teaspoon salt."},{"recipe_directions":"This rice goes with my ghormeh sabzi recipe. Other traditional Persian side dishes include 1) chilled, fresh, whole radishes in lightly salted water; 2) white onions cut into eighths and large sprigs of fresh basil (served with pita bread and butter) and 3) peeled, sliced baby cucumbers tossed with a mild yogurt and chopped fresh dill, salt, and pepper to taste. A proper Persian dinner is never served without one or more of these table garnishes."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"},{"recipe_tags":"Pilaf"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"276\nCalories\n\n\n7g \nFat\n\n\n49g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641691-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mz4MJxZ_9WehPK45fPleZRTg-nA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9314192-ea6f59dae71846aab67c2c9e8a294362.jpg"
@@ -1817,59 +2058,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285890/persian-saffron-braised-chicken-thighs/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Persian Saffron-Braised Chicken Thighs</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon saffron threads\n\n\n3 tablespoons hot water, or more as needed\n\n\n1 ½ pounds boneless, skinless chicken thighs\n\n\n2 teaspoons kosher salt, divided\n\n\n  freshly cracked black pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n1  yellow onion, finely chopped\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon curry powder\n\n\n1 ½ cups chicken stock"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon saffron threads\n\n\n3 tablespoons hot water, or more as needed\n\n\n1 ½ pounds boneless, skinless chicken thighs\n\n\n2 teaspoons kosher salt, divided\n\n\n  freshly cracked black pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n1  yellow onion, finely chopped\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon curry powder\n\n\n1 ½ cups chicken stock'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place saffron threads into a small bowl and crush them up a bit with a spoon. Add 3 to 4 tablespoons of hot water and stir. Let bloom for about 10 minutes - the water should turn bright yellow/orange. Set aside."},{"recipe_directions":"Season chicken thighs on both sides with about 1 teaspoon salt and freshly cracked pepper."},{"recipe_directions":"Heat oil in a large nonstick skillet over medium-high heat. Add chicken thighs and sear on both sides until golden, 3 to 4 minutes per side. Remove and place on a plate to the side. Add onion to the same skillet and cook until soft and translucent, 3 to 4 minutes. Stir in garlic and curry powder and cook until fragrant, about 1 minute."},{"recipe_directions":"Pour in chicken stock and bring to a boil. Reduce heat to a simmer and add saffron mixture. Season with remaining 1 teaspoon salt and freshly cracked pepper. Stir to combine. Return chicken thighs to the skillet, cover, and simmer over low heat for 20 minutes, flipping thighs halfway through cook time. Season to taste and serve with the sauce."},{"recipe_directions":"You can use turmeric instead of curry powder if you like. I recommend using Diamond Crystal(R) kosher salt."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Thigh Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"320\nCalories\n\n\n21g \nFat\n\n\n5g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641695-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1881,59 +2118,55 @@
 Havij Polo (Persian Carrot Rice)</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279044/havij-polo-persian-carrot-rice/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Havij Polo (Persian Carrot Rice)</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  onion, thinly sliced\n\n\n½ cup salted butter\n\n\n1 pound cubed beef stew meat\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon salt\n\n\n2 cups grated carrots\n\n\n2 cups water\n\n\n3 tablespoons white sugar\n\n\n2 cups uncooked long-grain rice\n\n\n1 tablespoon butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  onion, thinly sliced\n\n\n½ cup salted butter\n\n\n1 pound cubed beef stew meat\n\n\n½ teaspoon ground cinnamon\n\n\n½ teaspoon salt\n\n\n2 cups grated carrots\n\n\n2 cups water\n\n\n3 tablespoons white sugar\n\n\n2 cups uncooked long-grain rice\n\n\n1 tablespoon butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Saute onion in butter in a large skillet over medium heat until translucent, about 5 minutes. Remove onion to a bowl, leaving any excess butter in the skillet."},{"recipe_directions":"Sprinkle meat with cinnamon and salt; cook in the skillet in the remaining butter until browned, 3 to 4 minutes per side. Transfer meat to a small pot, leaving butter in the skillet. Add carrots to the skillet and cook until lightly browned, about 5 minutes. Remove carrots to a bowl; set skillet aside."},{"recipe_directions":"Add water to the meat and bring to a boil. Reduce heat and simmer until tender, 30 to 40 minutes. Remove meat and mix with reserved onions. Pour 1 cup cooking water into the skillet used to cook the vegetables and meat. Add sugar; mix until completely dissolved. Set sauce aside."},{"recipe_directions":"While the meat is cooking, place rice in a colander and rinse several times with warm water to remove starch. Transfer to a bowl and soak for 5 to 10 minutes."},{"recipe_directions":"Bring 6 cups salty water to a boil in a large saucepan. Drain rice and add to the boiling water. Boil, stirring occasionally to prevent grains from sticking together, until rice is no longer crunchy but still quite firm, 5 to 10 minutes. Drain."},{"recipe_directions":"Butter the bottom of a large pot and top with several layers of rice, the meat-onion mixture, and carrots. Pour sauce over top. Cover the underside of the pot lid with a clean dish towel and place tightly on the pot to absorb moisture."},{"recipe_directions":"Cook over low heat until crunchy on the bottom, about 30 minutes, checking often near the end to prevent burning."},{"recipe_directions":"Margarine can be used in place of butter, and lamb can be substituted for beef."},{"recipe_directions":"Some people peel and thinly slice regular carrots, but to save time, I use baby carrots and zap them in the microwave for 2 minutes to make them easier to grate using a food chopper, blender, or food processor."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"427\nCalories\n\n\n21g \nFat\n\n\n46g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641700-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RUaSDdijLNehsPBGd645xJLsbsc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(674x0:676x2):format(webp)/8932070-203a706304094905a0e7c9161a9ba745.jpg"
@@ -1944,59 +2177,55 @@
 Kuku Sabzi</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282830/kuku-sabzi/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Kuku Sabzi</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large leek\n\n\n3 tablespoons extra-virgin olive oil, divided\n\n\n4 large eggs\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground fenugreek\n\n\n¾ teaspoon kosher salt\n\n\n½ teaspoon ground turmeric\n\n\n1 ½ cups finely chopped fresh parsley\n\n\n1 cup finely chopped fresh cilantro\n\n\n¾ cup finely chopped fresh dill"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large leek\n\n\n3 tablespoons extra-virgin olive oil, divided\n\n\n4 large eggs\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground fenugreek\n\n\n¾ teaspoon kosher salt\n\n\n½ teaspoon ground turmeric\n\n\n1 ½ cups finely chopped fresh parsley\n\n\n1 cup finely chopped fresh cilantro\n\n\n¾ cup finely chopped fresh dill'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice leek in half lengthwise, then thinly slice crosswise."},{"recipe_directions":"Heat 1 tablespoon oil in a 10-inch, nonstick, broiler-safe skillet over medium heat. Add leek and cook, stirring occasionally, until softened and cooked through, 8 to 10 minutes. Remove from heat."},{"recipe_directions":"Preheat the oven's broiler with the rack in the upper third position."},{"recipe_directions":"Whisk eggs in a large bowl. Add baking powder, fenugreek, salt, and turmeric, and whisk to thoroughly combine. Fold parsley, cilantro, dill, and leeks into eggs. Gently stir to combine; the mixture will be mostly herbs, with just enough egg to wet the mixture through."},{"recipe_directions":"Heat remaining 2 tablespoons oil in the same skillet over medium heat. Add herb mixture and distribute evenly in the pan, smoothing the top. Cover and cook, undisturbed, until the bottom and edges are just set, about 8 minutes."},{"recipe_directions":"Remove cover and transfer to the preheated oven. Cook until the top and middle is cooked through, 1 to 2 minutes."},{"recipe_directions":"To easily chop large amounts of herbs, roll them into a tight bundle or ball, pressing down and holding together with one hand. Run the knife through the bundle, continuing to chop as you move your hand back."},{"recipe_directions":"The drier the herbs are, the better the kuku will be. I used a salad spinner to get mine very dry after washing."},{"recipe_directions":"Kuku sabzi often includes barberries and walnuts, which can be folded in with the herbs if desired. Barberries could be substituted with dried cranberries, too."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"203\nCalories\n\n\n16g \nFat\n\n\n9g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641704-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J6uEG2YTI8WowhQNj3n4mxSefxg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5111160-4f3d29794ad4413787d1698d33e1cda6.jpg"
@@ -2009,59 +2238,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257500/nazook-sweet-persian-pastry/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Nazook (Sweet Persian Pastry)</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs 20 mins\n\n\nTotal Time:\n 3 hrs 40 mins\n\n\nServings:\n30 \n\n\nYield:\n30 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup sour cream, at room temperature\n\n\n2 teaspoons white sugar\n\n\n1 (.25 ounce) package active dry yeast\n\n\n1  egg\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon vegetable oil\n\n\n3 cups all-purpose flour\n\n\n½ cup butter"},{"recipe_ingredients":"1 pound butter, melted\n\n\n2 ½ cups white sugar\n\n\n2 teaspoons vanilla extract\n\n\n4 cups all-purpose flour\n\n\n2  egg whites"},{"recipe_ingredients":"2  egg yolks\n\n\n1 teaspoon plain yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup sour cream, at room temperature\n\n\n2 teaspoons white sugar\n\n\n1 (.25 ounce) package active dry yeast\n\n\n1  egg\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon vegetable oil\n\n\n3 cups all-purpose flour\n\n\n½ cup butter'}, {'recipe_ingredients': '1 pound butter, melted\n\n\n2 ½ cups white sugar\n\n\n2 teaspoons vanilla extract\n\n\n4 cups all-purpose flour\n\n\n2  egg whites'}, {'recipe_ingredients': '2  egg yolks\n\n\n1 teaspoon plain yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1 cup sour cream, 2 teaspoons sugar, and yeast together in a bowl. Let stand for 5 minutes. Mix in egg, vinegar, and oil."},{"recipe_directions":"Pour 3 cups flour into a large bowl. Cut in 1/2 cup butter, working it into the flour until mixture is the consistency of meal. Stir in sour cream mixture until dough comes together."},{"recipe_directions":"Turn dough out onto a floured surface; knead until smooth but still slightly tacky, about 10 minutes. Cut dough into 4 pieces and wrap each piece in plastic wrap. Refrigerate until firm, at least 2 hours and up to overnight."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix melted butter, 2 1/2 cups sugar, and vanilla extract together in a very large bowl to make filling. Stir in 4 cups flour. Beat in egg whites."},{"recipe_directions":"Roll a piece of dough into an 8x12-inch rectangle on a lightly floured work surface. Crumble 1/4 of the filling mixture on top, leaving a 1/2-inch border on the long sides. Cover filling with plastic wrap; flatten out with a rolling pin. Roll dough into a tight roll, starting with one of the long sides."},{"recipe_directions":"Cut roll into 2-inch pieces at a slight angle. Arrange pieces on a rimmed baking sheet. Push tops down gently to flatten slightly. Repeat with remaining 3 pieces of dough and filling."},{"recipe_directions":"Whisk egg yolks and yogurt together to make glaze. Brush glaze over pieces of dough."},{"recipe_directions":"Bake in the preheated oven until golden brown, 20 to 30 minutes. Let cool before serving, about 15 minutes."},{"recipe_directions":"I have kept these in the refrigerator for up to 1 week, warming them slightly in the microwave before eating. I'm sure they would also freeze just fine. I have also assembled just 1 or 2 pieces of dough at a time, leaving the rest of the dough and filling in the fridge for a few days, until I was ready to bake more."},{"recipe_directions":"Substitute sour cream for the yogurt in the glaze if desired."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"336\nCalories\n\n\n18g \nFat\n\n\n40g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641707-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3FK8hIPYm1P4yiqRoU6IO6X1uOY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(646x0:648x2):format(webp)/5419154-671ed6d71bc8488d99a30fad4388f695.jpg"
@@ -2074,59 +2299,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264840/cold-yogurt-soup-abdoogh-khiar/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Cold Yogurt Soup (Abdoogh Khiar)</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 2-cup bowls"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups Greek-style yogurt\n\n\n1 teaspoon salt\n\n\n2 teaspoons crushed dried mint\n\n\n2 cups cold water, or more as needed \n\n\n2  Persian cucumbers, diced\n\n\n¼ cup raisins\n\n\n¼ cup chopped walnuts\n\n\n½ cup chopped fresh mint\n\n\n½ cup chopped fresh parsley\n\n\n2 teaspoons ground dried Persian rose petals (Optional)\n\n\n  ice cubes\n\n\n2  pita bread rounds, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups Greek-style yogurt\n\n\n1 teaspoon salt\n\n\n2 teaspoons crushed dried mint\n\n\n2 cups cold water, or more as needed \n\n\n2  Persian cucumbers, diced\n\n\n¼ cup raisins\n\n\n¼ cup chopped walnuts\n\n\n½ cup chopped fresh mint\n\n\n½ cup chopped fresh parsley\n\n\n2 teaspoons ground dried Persian rose petals (Optional)\n\n\n  ice cubes\n\n\n2  pita bread rounds, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Puree yogurt, salt, and dried mint in a blender with enough of the water to create a smooth, thin soup. It will thicken some when you add the bread."},{"recipe_directions":"Divide the cucumbers, raisins, walnuts, and herbs among four bowls."},{"recipe_directions":"Pour one-fourth of the yogurt mixture into each bowl."},{"recipe_directions":"Top with rose petals, and add a few ice cubes to each bowl."},{"recipe_directions":"Tear bread into small pieces and add some to each bowl. Let bread soak 5 to 7 minutes before serving. Serve cold."},{"recipe_directions":"Any seedless cucumber will do."},{"recipe_directions":"Use 1 cup of any fresh green herbs you like, such as mint, parsley, dill, and basil."},{"recipe_directions":"Substitute pita with any flatbread you prefer."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n15g \nFat\n\n\n33g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641710-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -2138,59 +2359,55 @@
 Gheymeh (Persian Beef Stew)</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279046/gheymeh-persian-beef-stew/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Gheymeh (Persian Beef Stew)</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ tablespoons oil\n\n\n1 medium onion, chopped\n\n\n¾ pound beef stew meat, cut into small pieces\n\n\n1 cup dried split peas\n\n\n2  dried Persian limes\n\n\n1 ½ tablespoons tomato paste, or to taste\n\n\n1 teaspoon salt\n\n\n1 pinch curry powder, or to taste\n\n\n1 pinch ground turmeric, or to taste\n\n\n1 pinch ground black pepper to taste\n\n\n  water as needed\n\n\n  oil for frying\n\n\n½ pound potatoes, peeled"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ tablespoons oil\n\n\n1 medium onion, chopped\n\n\n¾ pound beef stew meat, cut into small pieces\n\n\n1 cup dried split peas\n\n\n2  dried Persian limes\n\n\n1 ½ tablespoons tomato paste, or to taste\n\n\n1 teaspoon salt\n\n\n1 pinch curry powder, or to taste\n\n\n1 pinch ground turmeric, or to taste\n\n\n1 pinch ground black pepper to taste\n\n\n  water as needed\n\n\n  oil for frying\n\n\n½ pound potatoes, peeled'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 1/2 tablespoons oil in a saucepan over medium heat; stir in onion. Cook and stir until the onion has softened and turned translucent, about 5 minutes. Add stew meat, split peas, limes, tomato paste, salt, curry powder, turmeric, and pepper. Add just enough water to fully cover the surface of the mixture. Cover and simmer until split peas are tender and meat is cooked through and no longer pink in the center, 2 to 3 hours."},{"recipe_directions":"Just before the stew is ready, heat 2 inches oil in a deep saucepan over medium heat to 300 degrees F (150 degrees C). Slice potatoes into 2-inch long, thin pieces and lower carefully into the hot oil in batches. Fry until soft, 4 to 5 minutes per batch. Transfer to a plate lined with paper towels to drain."},{"recipe_directions":"Increase the heat so the oil is 400 degrees F (200 degrees C). Fry potatoes again, until golden and crisp, 4 to 5 minutes per batch. Remove from the oil and drain on fresh paper towels."},{"recipe_directions":"Pour stew into bowls and place potatoes on the surface."},{"recipe_directions":"The dried lime isn't a regular lime, but a special Iranian lime that, so far as I know, has no English name. Ask for it in the nearest Persian mart or just add lemon juice instead."},{"recipe_directions":"Use ground red pepper for black pepper, if desired. You can use the packed French fry-like potatoes found in some stores to save time."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"722\nCalories\n\n\n38g \nFat\n\n\n61g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641714-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tb6HC2zsQm4OXnAwAQ8jqFWPXq0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/485028-fcfaabc8cfc047649136af374c4d6442.jpg"
@@ -2203,59 +2420,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213633/kabab-barg/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Kabab Barg</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup extra-virgin olive oil\n\n\n¼ cup fresh lime juice\n\n\n2 large onions, grated\n\n\n1 clove garlic, crushed\n\n\n½ teaspoon saffron\n\n\n1 teaspoon salt\n\n\n¼ teaspoon black pepper\n\n\n1 ¾ pounds boneless lamb, cut into 1/2-inch x 1 1/2-inch pieces\n\n\n4  tomatoes\n\n\n1 tablespoon sumac powder (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup extra-virgin olive oil\n\n\n¼ cup fresh lime juice\n\n\n2 large onions, grated\n\n\n1 clove garlic, crushed\n\n\n½ teaspoon saffron\n\n\n1 teaspoon salt\n\n\n¼ teaspoon black pepper\n\n\n1 ¾ pounds boneless lamb, cut into 1/2-inch x 1 1/2-inch pieces\n\n\n4  tomatoes\n\n\n1 tablespoon sumac powder (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine olive oil, lime juice, onions, garlic, saffron, salt, and pepper in a large, zip top food storage bag. Place lamb pieces in bag; seal and shake to combine. Marinate lamb, refrigerated, overnight or up to 24 hours."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat, and lightly oil the grate."},{"recipe_directions":"Thread marinated lamb on long, thin metal skewers. Thread whole tomatoes on another skewer. Brush lamb and tomatoes with marinade; discard remaining marinade."},{"recipe_directions":"Grill kebabs, until lamb is cooked to your liking and tomatoes are hot and grill marked, about 5 minutes on each side. Sprinkle with sumac, if desired, before serving."},{"recipe_directions":"If you're serving this with rice, sprinkle with ground sumac, if desired."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the marinade ingredients. The actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n33g \nFat\n\n\n10g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641719-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-hYDCJKIFLqX4QJ_0Vp81uN5ecM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/9247638-eafbbc485234482ca43fa8831040e62d.jpg"
@@ -2268,59 +2481,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257498/flavorful-persian-braised-lamb-shanks/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Flavorful Persian Braised Lamb Shanks</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 30 mins\n\n\nAdditional Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 lamb shanks\n\n\n¼ cup olive oil, divided\n\n\n4 tablespoons salt\n\n\n2 teaspoons ground turmeric\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon ground cardamom\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon ground nutmeg\n\n\n1 large onion, chopped\n\n\n3 cloves garlic\n\n\n⅓ cup hot water\n\n\n2 limes, juiced\n\n\n2 teaspoons rosewater\n\n\n¼ teaspoon crumbled saffron\n\n\n½ cup red wine\n\n\n1 tablespoon chopped fresh parsley\n\n\n3 sprigs thyme, leaves picked\n\n\n½ teaspoon grated lime zest\n\n\n2 bay leaves\n\n\n6 cups hot chicken broth"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 lamb shanks\n\n\n¼ cup olive oil, divided\n\n\n4 tablespoons salt\n\n\n2 teaspoons ground turmeric\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon ground cardamom\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon ground nutmeg\n\n\n1 large onion, chopped\n\n\n3 cloves garlic\n\n\n⅓ cup hot water\n\n\n2 limes, juiced\n\n\n2 teaspoons rosewater\n\n\n¼ teaspoon crumbled saffron\n\n\n½ cup red wine\n\n\n1 tablespoon chopped fresh parsley\n\n\n3 sprigs thyme, leaves picked\n\n\n½ teaspoon grated lime zest\n\n\n2 bay leaves\n\n\n6 cups hot chicken broth'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rub 1 tablespoon olive oil over lamb shanks and cover with salt."},{"recipe_directions":"Mix turmeric, cinnamon, cardamom, black pepper, cumin, and nutmeg together in a small bowl. Sprinkle over lamb shanks. Let lamb shanks marinate for 1 hour at room temperature."},{"recipe_directions":"Heat 1 tablespoon olive oil in a large pot. Cook and stir onion until browned, 10 to 15 minutes. Stir in garlic; cook and stir until fragrant, about 1 minute. Remove from heat."},{"recipe_directions":"Whisk hot water, lime juice, rose water, and saffron together in a small bowl. Cover and let steep for 10 minutes."},{"recipe_directions":"Heat remaining 2 tablespoons olive oil in a large pot over medium-high heat. Cook lamb shanks in batches until browned, 5 to 8 minutes per batch. Transfer lamb shanks to a plate."},{"recipe_directions":"Whisk wine into the pot, scraping any browned bits off the bottom. Add onion and garlic mixture, steeped saffron mixture, parsley, thyme, lime zest, and bay leaves. Return lamb shanks to the pot. Cover with chicken broth. Bring to a boil; reduce heat to medium-low and simmer, covered, until lamb shanks are tender, about 2 1/2 hours."},{"recipe_directions":"Preheat the oven to 250 degrees F (120 degrees C)."},{"recipe_directions":"Uncover pot and simmer until broth reduces slightly, about 20 minutes. Transfer lamb shanks to an oven-safe dish."},{"recipe_directions":"Place lamb shanks in the preheated oven to keep warm."},{"recipe_directions":"Bring broth to a boil; simmer until thickened, about 10 minutes. Spoon broth over lamb shanks."},{"recipe_directions":"Substitute water for the chicken broth if desired."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"432\nCalories\n\n\n27g \nFat\n\n\n13g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641723-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BWO_S0dDpDGnYBf5AisoB0pck6A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1833x0:1835x2):format(webp)/8061856-bd4b1e920c5e4050a1c372619c185e22.jpg"
@@ -2333,59 +2542,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279051/jujeh-kabob-persian-chicken-kabobs/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Jujeh Kabob (Persian Chicken Kabobs)</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 25 mins\n\n\nServings:\n6 \n\n\nYield:\n12 kabobs"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium onion, sliced thin\n\n\n1 lime, juiced\n\n\n1 lemon, juiced\n\n\n1 tablespoon salt\n\n\n1 teaspoon ground black pepper\n\n\n⅓ teaspoon crushed saffron\n\n\n¼ cup olive oil\n\n\n3 pounds skinless, boneless chicken breasts, cut into 1-inch cubes\n\n\nmetal skewers"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium onion, sliced thin\n\n\n1 lime, juiced\n\n\n1 lemon, juiced\n\n\n1 tablespoon salt\n\n\n1 teaspoon ground black pepper\n\n\n⅓ teaspoon crushed saffron\n\n\n¼ cup olive oil\n\n\n3 pounds skinless, boneless chicken breasts, cut into 1-inch cubes\n\n\nmetal skewers'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine onion, lime juice, lemon juice, salt, pepper, and saffron in a large glass bowl. Mix in olive oil. Press chicken into the bowl lightly and cover with plastic wrap. Let marinate for 6 hours to overnight, mixing every few hours to make sure chicken is coated."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Remove chicken from the bowl, shake off excess marinade, and discard marinade left in the bowl. Place chicken onto metal skewers, making sure it's not too tightly packed."},{"recipe_directions":"Cook skewers on the preheated grill until chicken is browned and no longer pink in the center, turning as needed, 10 to 15 minutes total."},{"recipe_directions":"You can use boneless chicken thighs cut into quarters instead of chicken breasts."},{"recipe_directions":"You can use soaked bamboo skewers instead of metal."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"346\nCalories\n\n\n15g \nFat\n\n\n5g \nCarbs\n\n\n48g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641727-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bBxGv8t18VJUBxRa84auEJG2Ero=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7797730-56d3cc7c89324e02bb0758b83d35fc58.jpg"
@@ -2398,59 +2603,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279195/mahi-sorkh-shodeh-persian-fried-fish/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Mahi Sorkh Shodeh (Persian Fried Fish)</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅛ teaspoon saffron threads\n\n\n1 tablespoon boiling water\n\n\n¼ cup all-purpose flour\n\n\n1 ½ teaspoons kosher salt, or more to taste\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon freshly ground black pepper\n\n\n¼ teaspoon onion powder\n\n\n¼ teaspoon garlic powder\n\n\n1 ½ pounds skinless cod fillets, about 1-inch thick\n\n\n¼ cup grapeseed oil\n\n\n¼  orange, juiced\n\n\n1  orange, cut into wedges\n\n\n1  lime, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅛ teaspoon saffron threads\n\n\n1 tablespoon boiling water\n\n\n¼ cup all-purpose flour\n\n\n1 ½ teaspoons kosher salt, or more to taste\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon freshly ground black pepper\n\n\n¼ teaspoon onion powder\n\n\n¼ teaspoon garlic powder\n\n\n1 ½ pounds skinless cod fillets, about 1-inch thick\n\n\n¼ cup grapeseed oil\n\n\n¼  orange, juiced\n\n\n1  orange, cut into wedges\n\n\n1  lime, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Crush saffron threads to a powder in a small mortar and pestle. Transfer to a small bowl with 1 tablespoon boiling water. Stir, cover, and set saffron water aside."},{"recipe_directions":"Combine flour, 1 1/2 teaspoons salt, turmeric, pepper, onion powder, and garlic powder on a large plate."},{"recipe_directions":"Dry fish well with paper towels. Cut into 3-inch long pieces and season with salt. Dredge fish in the flour mixture on all sides."},{"recipe_directions":"Heat oil in a large pan over medium to medium-high heat. Add fish and fry on one side until nice and golden, about 7 minutes. Flip fish, drizzle saffron water over top, and fry the other side until golden and fish flakes easily with a fork, about 5 more minutes."},{"recipe_directions":"Transfer fish to a serving platter. Squeeze orange juice over top and serve with orange and lime wedges."},{"recipe_directions":"Typically, this dish is prepared with white fish, but easier-to-find cod or halibut also work great."},{"recipe_directions":"If you can find fragrant Seville oranges, use them here for their intoxicating scent and flavorful juice."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"300\nCalories\n\n\n15g \nFat\n\n\n9g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641731-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ujWImEh60gAKcAgKZq9L4h88yKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(851x0:853x2):format(webp)/5266724-3ae1dfbcfcd44c4e851474ecc00a19be.jpg"
@@ -2463,59 +2664,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215387/adas-polow-persian-rice-and-lentils/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Adas Polo (Persian Rice and Lentils)</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 4 hrs 35 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound uncooked white rice\n\n\n4 cups water, or as needed\n\n\n½ teaspoon salt\n\n\n2 cups water, or more as needed\n\n\n  salt to taste\n\n\n2 cups dry lentils, rinsed\n\n\n¼ cup vegetable oil, divided\n\n\n2 large onions, thinly sliced\n\n\n½ teaspoon saffron\n\n\n⅓ cup hot water\n\n\n¾ cup pitted, chopped dates\n\n\n¾ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound uncooked white rice\n\n\n4 cups water, or as needed\n\n\n½ teaspoon salt\n\n\n2 cups water, or more as needed\n\n\n  salt to taste\n\n\n2 cups dry lentils, rinsed\n\n\n¼ cup vegetable oil, divided\n\n\n2 large onions, thinly sliced\n\n\n½ teaspoon saffron\n\n\n⅓ cup hot water\n\n\n¾ cup pitted, chopped dates\n\n\n¾ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place rice in a bowl, and cover with water. Soak rice for about 3 hours, and drain off water. Bring rice, 1/2 teaspoon salt, and 4 cups water to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is partially cooked, about 10 minutes. Drain liquid from rice, and set rice aside."},{"recipe_directions":"Bring 2 more cups of water and a pinch of salt to a boil in a saucepan, and stir in lentils. Bring to a boil, and cook over medium heat until tender, 15 to 20 minutes. Remove from heat."},{"recipe_directions":"Heat 2 tablespoons of vegetable oil in a large skillet over medium heat, and fry onions, frequently stirring, until golden brown, about 20 minutes. Set onions aside. Dissolve saffron in 1/3 cup of hot water, and set aside."},{"recipe_directions":"In a large nonstick pot with deep sides, heat 2 tablespoons of vegetable oil until shimmering, and spoon in half of rice to cover the bottom of the pot. Top rice with lentils, and cover lentils with remaining rice. Reduce heat to low, cover the pot, and cook until rice is completely tender and there is a golden brown, crusty layer of rice on the bottom of the pot, about 20 minutes. Pour saffron water over rice and lentils, cover, and allow to cook until absorbed, about 10 more minutes."},{"recipe_directions":"To serve, spoon polo into a serving dish, and peel off and place pieces of crusty rice layer on top of polo. Decorate polo with dates, raisins, and fried onions."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"537\nCalories\n\n\n8g \nFat\n\n\n100g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641734-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JKmO828gtFWlA6xMnrJkLR_wnuw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/9230492-273edb415f7d41b697a85cb9b43a7ee2.jpg"
@@ -2528,59 +2725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14515/persian-shish-kabob/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Persian Shish Kabob</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds beef tenderloin\n\n\n1  onion, chopped\n\n\n⅛ cup fresh lime juice\n\n\n1 tablespoon salt\n\n\n1 pinch ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds beef tenderloin\n\n\n1  onion, chopped\n\n\n⅛ cup fresh lime juice\n\n\n1 tablespoon salt\n\n\n1 pinch ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut beef into 1x1/2-inch cubes and place in a large bowl. Add onion, lime juice, salt, and black pepper; mix well. Cover the bowl and refrigerate for 8 hours to overnight."},{"recipe_directions":"Preheat an outdoor grill for high heat and lightly oil the grate."},{"recipe_directions":"Thread beef on skewers, 6 to 8 pieces per skewer. Discard any excess marinade."},{"recipe_directions":"Cook beef skewers on the preheated grill for 3 to 4 minutes per side, 12 to 16 minutes in total. An instant-read thermometer inserted into the center of beef should read at least 145 degrees F (63 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"297\nCalories\n\n\n14g \nFat\n\n\n3g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641740-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D8pEIfmJlOeo8T7bccHxNjui2kE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1817094-388349d676a344df8cb1c35d603495b4.jpg"
@@ -2593,59 +2786,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240607/duck-fesenjan/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Duck Fesenjān</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 3 hrs 40 mins\n\n\nTotal Time:\n 3 hrs 50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  duck legs\n\n\n  salt and freshly ground black pepper to taste\n\n\n2 tablespoons vegetable oil\n\n\n¼ cup water, or as needed\n\n\n3 tablespoons olive oil, or more to taste\n\n\n2 cups diced yellow onion\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n6 cups chicken broth, or more as needed\n\n\n⅔ cup pomegranate molasses\n\n\n¼ cup honey\n\n\n3 cups walnut halves"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  duck legs\n\n\n  salt and freshly ground black pepper to taste\n\n\n2 tablespoons vegetable oil\n\n\n¼ cup water, or as needed\n\n\n3 tablespoons olive oil, or more to taste\n\n\n2 cups diced yellow onion\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground nutmeg\n\n\n6 cups chicken broth, or more as needed\n\n\n⅔ cup pomegranate molasses\n\n\n¼ cup honey\n\n\n3 cups walnut halves'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Season duck legs all over with salt and pepper."},{"recipe_directions":"Heat vegetable oil in a large skillet over high heat. Place duck legs, skin-side down, in hot oil and cook until browned, 2 to 5 minutes. Turn and cook until browned on the other side, 2 to 4 minutes. Transfer legs to a plate; pour rendered duck fat into a bowl."},{"recipe_directions":"Pour water into the skillet and bring to a boil while scraping the browned bits of food off of the bottom of the pan with a wooden spoon. Remove from the heat."},{"recipe_directions":"Place about 2 tablespoons duck fat into a Dutch oven; add olive oil and heat over medium heat until hot. Add onion and sauté until golden brown, 7 to 10 minutes. Add turmeric, cinnamon, and nutmeg; cook and stir until fragrant, 1 minute."},{"recipe_directions":"Pour chicken broth, pomegranate molasses, honey, and reserved water mixture from the skillet into the Dutch oven; bring to a simmer."},{"recipe_directions":"Meanwhile, grind walnuts to a fine powder in a food processor."},{"recipe_directions":"Cook and stir ground walnuts in a dry skillet over medium heat until fragrant, 2 to 3 minutes; stir into broth mixture."},{"recipe_directions":"Place duck legs into broth and press gently to submerge. Reduce the heat and simmer until duck legs are no longer pink at the bone and the juices run clear, 3 to 4 hours. An instant-read thermometer inserted near the bone should read 165 degrees F (74 degrees C)."},{"recipe_directions":"Bring broth to a boil; cook until reduced and desired sauce consistency is reached. Season with salt. Ladle sauce over duck legs to serve."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"668\nCalories\n\n\n48g \nFat\n\n\n32g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641743-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xatL897KsPo61v7IzXn0loFF9F8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/106163-4e9e6dca1218495e9faf4ad2b1d09ecb.jpg"
@@ -2658,59 +2847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/103170/the-rebbetzin-chefs-persian-walnut-cookies/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>The Rebbetzin Chef's Persian Walnut Cookies</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n36 \n\n\nYield:\n36 cookies"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups finely ground walnuts\n\n\n¾ cup white sugar\n\n\n4 large egg yolks, divided\n\n\n1 tablespoon ground cardamom\n\n\n1 teaspoon baking soda\n\n\n1 tablespoon rose water\n\n\n1 teaspoon water\n\n\n½ cup walnut pieces for decoration"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups finely ground walnuts\n\n\n¾ cup white sugar\n\n\n4 large egg yolks, divided\n\n\n1 tablespoon ground cardamom\n\n\n1 teaspoon baking soda\n\n\n1 tablespoon rose water\n\n\n1 teaspoon water\n\n\n½ cup walnut pieces for decoration'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line 2 baking sheets with parchment paper."},{"recipe_directions":"Mix together ground walnuts, sugar, 3 egg yolks, cardamom, baking soda, and rose water in a medium bowl until well blended. Roll teaspoon-sized pieces of dough into balls and place 2 inches apart onto the prepared baking sheets."},{"recipe_directions":"Whisk together remaining egg yolk and water using a fork. Press a walnut piece into each cookie, then brush with egg yolk glaze."},{"recipe_directions":"Bake in the preheated oven until golden, about 20 minutes. The cookies will appear soft and undercooked but they will harden considerably when cooled."},{"recipe_directions":"Remove from the oven and allow to cool on the baking sheets for at least 10 minutes before transferring to a wire rack to cool completely."},{"recipe_directions":"Pistachios or almonds can be used instead of walnuts."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"66\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641748-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/63wDRqgMk8Lv3tOi9KQlQD_IVnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x413:961x415):format(webp)/6646364-iskender-kebab-Tuncer-Pekdemir-4x3-1-ca6344ee3a6749159edc625c677f2a2a.jpg"
@@ -2724,59 +2909,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88080/iskender-kebab/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Iskender Kebab</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  pita bread rounds\n\n\n1 tablespoon olive oil\n\n\n4  skinless, boneless chicken breast halves - chopped\n\n\n2 medium onions, chopped\n\n\n1 clove garlic, minced\n\n\n1 (10.75 ounce) can  tomato paste\n\n\n  ground cumin to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n½ cup butter, melted\n\n\n1 cup Greek yogurt\n\n\n¼ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  pita bread rounds\n\n\n1 tablespoon olive oil\n\n\n4  skinless, boneless chicken breast halves - chopped\n\n\n2 medium onions, chopped\n\n\n1 clove garlic, minced\n\n\n1 (10.75 ounce) can  tomato paste\n\n\n  ground cumin to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n½ cup butter, melted\n\n\n1 cup Greek yogurt\n\n\n¼ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Arrange pita bread on a baking sheet."},{"recipe_directions":"Bake pitas in the preheated oven until lightly toasted; cut into bite-sized pieces and keep warm."},{"recipe_directions":"Heat oil in a skillet over medium heat. Stir in chicken, onion, and garlic; cook until chicken is cooked through and juices run clear, about 10 minutes. Mix in tomato purée; season with cumin, salt, and pepper. Continue to cook and stir for a few minutes."},{"recipe_directions":"Arrange toasted pita pieces in a serving dish. Drizzle with melted butter and top with chicken mixture. Garnish with yogurt and parsley to serve."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"667\nCalories\n\n\n36g \nFat\n\n\n49g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641752-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0EWJzvqcqj19pWD_A9HDXO0or5I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/8061856_jujeh-kabob-persian-chicken-kabobs_france-c-4702673bca714596acdd982c2ac0e091.jpg"
@@ -2788,59 +2969,55 @@
 12 Best Persian Recipes to Add to Your Weeknight Rotation</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-persian-recipes/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>12 Best Persian Recipes to Add to Your Weeknight Rotation</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Persian cuisine is an ancient cooking tradition that focuses on fresh herbs, rice, stews, vegetables, grilled meats, yogurt, citrus — and showcases beautifully balanced flavors and textures. And speaking of textures, Persian cuisine is also the home of tahdig — which takes the crispy crust of rice or potatoes that forms on the bottom of pans and casseroles and elevates it to an art form. With this collection, we've gathered together some of our favorite Persian recipes and Persian-inspired dishes, top-rated recipes that are simple enough to make during weeknights. Whether you're new to Persian cooking or you know and love it, these simple recipes will be great additions to your rotation."},{"recipe_directions":"\"Kuku sabzi is a traditional Persian dish that is a herb-heavy frittata,\" says Ali Ramee, the recipe submitter. \"The egg is really just a binder to hold all of the herbs together, it is not the main component of this dish. Serve with flatbread, yogurt, pickled onions, feta, and pomegranate seeds. It is wonderful hot, or at room temp.\""},{"recipe_directions":"You might also like:"},{"recipe_directions":"Here's a one-pot Persian recipe featuring rice, ground beef, green beans, tomato sauce, and curry spices. \"You will need a nonstick pan so you can invert the dish onto a serving platter and preserve its crisp rice crust — the tah digh,\" says Trina, who submitted the recipe."},{"recipe_directions":"You might also like:"},{"recipe_directions":"Ready in less than 40 minutes. This simple Persian-style fried fish gets its unique color and flavor from ground turmeric and a pinch of saffron threads. Enjoy it with wedges of fresh limes and Seville oranges."},{"recipe_directions":"You might also like:"},{"recipe_directions":"This simple cheese platter of fresh green herbs and crumbled cheese with flat bread is a great way to kick off a Persian-inspired meal."},{"recipe_directions":"Rice is an essential part of a Persian meal. Here's Chef John's take on the traditional Persian rice dish. \"I've posted a few fool-proof methods for cooking perfect rice,\" says Chef John, \"but this Persian version takes the grand prize, and it's not even close for second. The beauty of this method is that it doesn't rely on any specific measurements, or even exact times. This will make some of you very nervous, but just go with it.\""},{"recipe_directions":"You might also like:"},{"recipe_directions":"A refreshing cucumber and yogurt salad with toasted walnuts, plump golden raisins, and chopped fresh mint. \"This is a Persian recipe and my favorite cucumber salad,\" says Afiyet_olson. \"For best results refrigerate salad for about 1 hour.\""},{"recipe_directions":"Here's a Persian version of beans and rice. You'll simmer rice with fresh herbs (dill, parsley, and cilantro), spices, and fava beans. \"This is a Persian dish which I often make for my husband,\" says GONDWANA. \"It will taste much better if you use fresh herbs. It also goes very well with either fish or chicken. Hope you like it.\""},{"recipe_directions":"\"This is a classic Persian chicken kabob that is very delicious and tasty,\" says Reza Michael. \"Serve with roasted tomatoes, fresh onions, sliced lemons, and rice.\""},{"recipe_directions":"You might also like:"},{"recipe_directions":"This traditional Persian eggplant stew features spiced beef, tomatoes, and chelo, a delectable rice pilaf with a crispy golden crust. \"Disclaimer: I am not Persian,\" says Sarah Kelly, who submitted the recipe. \"This recipe my mother learned from Fatima in Tehran when we lived there in 1973. I grew up eating this dish and learned it at my mother's elbow. It was also a company dish and many people claiming to hate eggplant enjoyed this dish.\""},{"recipe_directions":"You might also like:"},{"recipe_directions":"This simple salad features diced ripe tomatoes, red onions, and cucumbers in a simple dressing of olive oil, fresh lemon juice, and herbs. \"Sumac is the red bitter spice usually served for sprinkling on kebab,\" says Autumn Leaves, who submitted the recipe. \"It's available at most Middle Eastern stores, but if you can't find it just leave it out. I like to dice the veggies very small about 1/4-inch. Serve with fresh lemon wedges.\""},{"recipe_directions":"Toss whole fava bean pods with olive oil, lemon juice, salt, and garlic; char on a hot grill; and serve topped with more olive oil, lemon juice, red pepper flakes, and mint. \"Here we're grilling whole pods until the skin is charred and the beans inside are just tender,\" says Chef John. Versatile fava beans shine in salads, pastas, and on pizzas."},{"recipe_directions":"Here's a vegan-inspired take on a traditional Persian chicken stew. It features chunks of seitan in place of poultry, along with thin slices of tart apples, onions, apple juice, and spices."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641755-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-_g2pMKv5WBEUpmbnm3L2f0meIY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/6624983-0f9157139d2442b8957084db6e7ce016.jpg"
@@ -2853,59 +3030,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279043/kalam-polo-persian-cabbage-and-rice/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Kalam Polo (Persian Cabbage and Rice)</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups boiling water\n\n\n1 tablespoon saffron\n\n\n3 tablespoons vegetable oil, divided\n\n\n½ cup chopped onion\n\n\n1 pound ground beef\n\n\n1 teaspoon salt, divided\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon ground turmeric\n\n\n3 cups chopped cabbage\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground ginger\n\n\n2 cups basmati rice\n\n\n1 ½ cups cold water\n\n\n1 tablespoon butter\n\n\n1 cup hot water"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups boiling water\n\n\n1 tablespoon saffron\n\n\n3 tablespoons vegetable oil, divided\n\n\n½ cup chopped onion\n\n\n1 pound ground beef\n\n\n1 teaspoon salt, divided\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon ground turmeric\n\n\n3 cups chopped cabbage\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon ground ginger\n\n\n2 cups basmati rice\n\n\n1 ½ cups cold water\n\n\n1 tablespoon butter\n\n\n1 cup hot water'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour boiling water over ground saffron; let sit for 30 minutes. Reserve 1/4 cup for rice; save remaining brewed saffron for another use."},{"recipe_directions":"Heat 2 tablespoons vegetable oil in a pan over medium-high heat. Sauté onion until light brown, 5 to 7 minutes. Stir in ground beef, 1/2 teaspoon salt, black pepper, and turmeric. Cook and stir until beef is browned and crumbly, 5 to 7 minutes. Cover the pan and cook over low heat for 15 minutes."},{"recipe_directions":"Heat remaining oil in another pan over medium heat. Sauté cabbage until tender, about 5 minutes. Add cinnamon and ginger. Stir mixture into ground beef mixture and continue to cook over low heat, covered, for 5 minutes, adding 1 tablespoon of water if the mixture is dry."},{"recipe_directions":"Rinse and drain rice; transfer to a pot. Add cold water, butter, and remaining salt. Bring mixture to a boil, uncovered. Reduce heat to medium-low and simmer until rice is half-cooked and water has evaporated, 10 to 15 minutes. Fluff with a fork."},{"recipe_directions":"Add beef mixture to the rice and slowly mix to incorporate. Turn the heat to low. Add hot water and reserved 1/4 cup brewed saffron to the rice, cover the pot, and let cook until rice is tender, about 20 minutes."},{"recipe_directions":"You may adjust the amount of required water based on how you prefer your rice."},{"recipe_directions":"If you like a crispy tahdig, let the polo cook for extra time."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"681\nCalories\n\n\n28g \nFat\n\n\n81g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641758-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nBAjjcjSQ5uX1zpANGSkyygMkUM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(767x0:769x2):format(webp)/5073853-852cbd0da2064f2c8e8033a5d522d335.jpg"
@@ -2918,59 +3091,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31794/lubia-polo-green-bean-rice/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Lubia Polo (Green Bean Rice)</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound ground beef\n\n\n1 large onion, chopped\n\n\n1  jalapeno pepper, finely chopped\n\n\n2 tablespoons curry powder\n\n\n5 cups chicken broth\n\n\n1 cup tomato sauce\n\n\n1 pound fresh green beans, cut into 1 inch pieces\n\n\n3 cups uncooked basmati rice, rinsed and drained\n\n\n3 tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound ground beef\n\n\n1 large onion, chopped\n\n\n1  jalapeno pepper, finely chopped\n\n\n2 tablespoons curry powder\n\n\n5 cups chicken broth\n\n\n1 cup tomato sauce\n\n\n1 pound fresh green beans, cut into 1 inch pieces\n\n\n3 cups uncooked basmati rice, rinsed and drained\n\n\n3 tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large nonstick pan (one that has a lid) over medium-high heat. Cook and stir beef until browned and crumbly, 5 to 7 minutes; drain and discard grease. Stir in onion and jalapeño, and cook until tender. Season with curry powder; stir in chicken broth and tomato sauce. Bring to a boil, and stir in green beans. Reduce heat to medium and simmer until beans are tender, about 15 minutes."},{"recipe_directions":"Stir in rice, and cover the pan. Cook on medium heat for 10 to 15 minutes or until much of the liquid is absorbed. Be careful not to overcook rice at this point, or the dish will be mushy; the rice should be firm. Transfer everything in the pan to a bowl or heatproof container, and return the pot to the stove."},{"recipe_directions":"Heat oil in the nonstick pan over medium heat. Carefully dump cooked rice mixture back into the pan. Wrap a clean dish towel around the inside of the pot's lid. (The ends of the dish towel will be folded over the edges on top of the lid.) Put the lid on the pot. Cook over medium-low heat for 35 minutes without uncovering or stirring. Remove the lid and place a tray on top of the pot, then carefully flip it over. The rice will hold the shape of the pot and have a nice crust on top called \"tah digh.\""}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"676\nCalories\n\n\n29g \nFat\n\n\n85g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641761-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MR-v-UsA7xSpMeToqQur63y1GTA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/7127661-sekanjabin-iranian-mint-vinegar-syrup-Diana71-4x3-1-4a9e9ef37e9a441abd64c6c9faaa62eb.jpg"
@@ -2984,59 +3153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237255/sekanjabin-iranian-mint-vinegar-syrup/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Sekanjabin (Iranian Mint Vinegar Syrup)</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n32"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 cups orange blossom honey\n\n\n5 cups water\n\n\n2 cups white wine vinegar\n\n\n12  large sprigs fresh mint"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 cups orange blossom honey\n\n\n5 cups water\n\n\n2 cups white wine vinegar\n\n\n12  large sprigs fresh mint'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir honey and water together in a pot; bring to a boil and stir constantly until honey dissolves. Add vinegar, reduce heat to low, and simmer until syrup flavors combine, about 20 minutes. Remove from heat."},{"recipe_directions":"Submerge mint in hot syrup and cool to room temperature."},{"recipe_directions":"Remove and discard mint. Chill syrup in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n70g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641764-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IHaG_nGZAfxniGdGpysyJgRffys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(637x0:639x2):format(webp)/4507511-cfc0f0cfd5034e29b5952eb1c5b4a493.jpg"
@@ -3049,59 +3214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161738/yazdi-cakes/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Yazdi Cakes</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cakes"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n4  eggs\n\n\n1 ¼ cups white sugar\n\n\n1 ½ cups butter, melted\n\n\n1 cup plain yogurt\n\n\n1 ½ teaspoons ground cardamom\n\n\n1 tablespoon rose water\n\n\n½ cup blanched slivered almonds\n\n\n1 ½ tablespoons chopped pistachio nuts"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n4  eggs\n\n\n1 ¼ cups white sugar\n\n\n1 ½ cups butter, melted\n\n\n1 cup plain yogurt\n\n\n1 ½ teaspoons ground cardamom\n\n\n1 tablespoon rose water\n\n\n½ cup blanched slivered almonds\n\n\n1 ½ tablespoons chopped pistachio nuts'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Sift the flour and baking powder into a bowl; set aside. Grease the cups of a cupcake/muffin pan. You will need 24 cups."},{"recipe_directions":"Combine the eggs and sugar in a large heatproof bowl and set on top of a pan of simmering water. Beat constantly with a whisk or electric mixer until thick and pale, about 8 minutes. Remove from the heat and continue to beat until cooled, about 10 minutes. Mix in the butter, yogurt, cardamom and rose water. Stir in the flour mixture by hand and fold in the slivered almonds. Spoon into the prepared cupcake molds, filling 3/4 full. Sprinkle some chopped pistachios over the tops."},{"recipe_directions":"Bake in the preheated oven until firm to the touch and golden brown, 25 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"215\nCalories\n\n\n14g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641769-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BmUTya7J4bVVqMi367q1VD3883s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7797735-e68f4a0c8994432c9ddb87a19c3b6b75.jpg"
@@ -3114,59 +3275,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279194/reshteh-polo-persian-noodle-rice/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Reshteh Polo (Persian Noodle Rice)</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup basmati rice\n\n\n3 ½ tablespoons kosher salt, divided\n\n\n¼ teaspoon saffron threads\n\n\n2 tablespoons boiling water\n\n\n½ (8 ounce) package roasted noodles\n\n\n¼ cup grapeseed oil\n\n\nkosher salt, to taste\n\n\n2 medium gold potatoes, sliced into quarter rounds\n\n\n¼ cup boiling water\n\n\n2 tablespoons unsalted butter, melted\n\n\n3 tablespoons unsalted butter\n\n\n6  Medjool dates, pitted and quartered\n\n\n½ cup golden raisins, rinsed and drained\n\n\n¼ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup basmati rice\n\n\n3 ½ tablespoons kosher salt, divided\n\n\n¼ teaspoon saffron threads\n\n\n2 tablespoons boiling water\n\n\n½ (8 ounce) package roasted noodles\n\n\n¼ cup grapeseed oil\n\n\nkosher salt, to taste\n\n\n2 medium gold potatoes, sliced into quarter rounds\n\n\n¼ cup boiling water\n\n\n2 tablespoons unsalted butter, melted\n\n\n3 tablespoons unsalted butter\n\n\n6  Medjool dates, pitted and quartered\n\n\n½ cup golden raisins, rinsed and drained\n\n\n¼ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place rice in a medium bowl and cover with tepid water. Gently swish it around with your finger to activate the starches, then tip the bowl to drain water. Repeat this process until water runs clear, about 7 rinses. Cover rice with cold water, add 1/2 tablespoon salt, stir gently, and soak for 1 hour. Drain rice without rinsing."},{"recipe_directions":"Crush saffron threads to a powder in a small mortar and pestle. Transfer to a small bowl with 2 tablespoons boiling water. Stir, cover, and set saffron water aside."},{"recipe_directions":"Fill a 5-quart nonstick pot with 9 cups water and bring to a boil over medium-high heat. Add 3 tablespoons salt and stir until dissolved. Break roasted noodles into thirds and add to boiling water with rice. Stir once gently, and watch carefully as it cooks so water does not boil over. Taste water for salt and adjust accordingly. Cook until first rice grain pops up to the surface. Set a timer for 4 minutes and cook, scooping off any foam from the surface until the timer goes off. Test rice and continue to cook until tender on the outside but still firm to the bite on the inside, 6 to 8 minutes more."},{"recipe_directions":"Drain rice and noodles in a colander and rinse quickly with lukewarm water and a spray faucet to rinse off extra starch. Taste and gently rinse again if too salty. Set aside to drain completely. Wash and dry the pot."},{"recipe_directions":"Place the clean pot over medium heat. Add oil, 1 tablespoon saffron water, and a pinch of salt; swirl the pot until the bottom and lower sides are coated with the oil mixture. Tightly overlap potato slices in a single layer covering the bottom of the pot to create the tahdig layer."},{"recipe_directions":"Gently scatter rice-noodle mixture over the tahdig in a pyramid shape, making sure potatoes are completely covered and moving noodles away from the sides of the pot. Gently poke the handle of a wooden spoon into rice and noodles a few times, being careful not to hit tahdig; this will allow steam to escape while cooking. Cover and cook until you see steam escaping from the sides of the lid and tahdig starts to set, about 10 minutes."},{"recipe_directions":"Meanwhile, combine 1/4 cup boiling water with 2 tablespoons melted butter and remaining saffron water. Lay a kitchen towel out on a heatproof surface."},{"recipe_directions":"Test tahdig by quickly tapping the side of the pot with a wooden spoon. When the pot sizzles, remove it from the heat. Remove the lid and place it on the kitchen towel, being careful that none of the condensation drips into the pot. Wrap the towel around the lid and secure the ends at the top by the handle so they will not hang near the heat source. Drizzle butter mixture over rice and cover with the towel-wrapped lid."},{"recipe_directions":"Place a heat diffuser on a burner over low or medium-low heat and return the pot to the stove. Cook until crispy, rotating the pot a few times, about 35 minutes. Remove from the heat and place on a damp kitchen towel; let sit, uncovered, for 5 minutes so tahdig will release easily."},{"recipe_directions":"Meanwhile, melt 3 tablespoons butter in a small pan over medium heat. Add dates, raisins, and cinnamon; sprinkle with a little salt. Cook and stir until dates are glistening and soft, 3 to 5 minutes."},{"recipe_directions":"Gently scatter rice on a platter and remove potato tahdig pieces and serve on the side. Sprinkle raisin-date sauce over top."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n12g \nFat\n\n\n45g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641772-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/v1A1xWVa0-ICxXpXlqw_0oyv1Bo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3062828-ash-e-reshteh-persian-legume-soup-CertifiedLemon-4x3-1-85d33f6688bc46a8a6a9d209efd3d845.jpg"
@@ -3180,59 +3337,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245476/ash-e-reshteh-persian-legume-soup/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Ash Reshteh (Persian Noodle and Bean Soup)</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 40 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 12 hrs\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup dry chickpeas (garbanzo beans)\n\n\n⅓ cup dry kidney beans\n\n\n2 tablespoons olive oil, divided, or as needed\n\n\n1 large red onion, thinly sliced\n\n\n1 tablespoon dried mint\n\n\n2 large yellow onions, thinly sliced\n\n\n6 cloves garlic, or to taste, minced\n\n\n2 teaspoons ground turmeric\n\n\n6 cups vegetable stock\n\n\n3 bunches scallions, chopped (green parts only)\n\n\n3 cups packed chopped fresh parsley\n\n\n2 cups packed chopped fresh cilantro\n\n\n2 cups packed chopped fresh mint\n\n\n½ cup dry lentils\n\n\n½ pound linguine pasta\n\n\n1 pound fresh spinach, chopped\n\n\n1 tablespoon all-purpose flour\n\n\n  salt and fresh ground pepper to taste\n\n\n1 cup Greek yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup dry chickpeas (garbanzo beans)\n\n\n⅓ cup dry kidney beans\n\n\n2 tablespoons olive oil, divided, or as needed\n\n\n1 large red onion, thinly sliced\n\n\n1 tablespoon dried mint\n\n\n2 large yellow onions, thinly sliced\n\n\n6 cloves garlic, or to taste, minced\n\n\n2 teaspoons ground turmeric\n\n\n6 cups vegetable stock\n\n\n3 bunches scallions, chopped (green parts only)\n\n\n3 cups packed chopped fresh parsley\n\n\n2 cups packed chopped fresh cilantro\n\n\n2 cups packed chopped fresh mint\n\n\n½ cup dry lentils\n\n\n½ pound linguine pasta\n\n\n1 pound fresh spinach, chopped\n\n\n1 tablespoon all-purpose flour\n\n\n  salt and fresh ground pepper to taste\n\n\n1 cup Greek yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chickpeas and kidney beans into a large container; cover with several inches of cool water. Let stand 8 hours to overnight; drain."},{"recipe_directions":"Heat 1 tablespoon olive oil in a skillet over medium heat. Add red onion; cook and stir until onion has softened and turned translucent, about 5 minutes. Reduce heat to low; continue cooking and stirring until onion is tender and golden brown, about 40 minutes more. Stir in dried mint; cook until onions become dark brown and crisp, about 15 minutes. Set aside for garnish."},{"recipe_directions":"Heat remaining olive oil in a stock pot; stir in yellow onions. Cook and stir until onion has turned translucent, about 5 minutes. Add garlic and stir until fragrant, about 1 minute. Stir in chickpeas, kidney beans, and turmeric; toss to combine. Stir in vegetable stock; simmer soup for 1 hour."},{"recipe_directions":"Stir scallions, parsley, cilantro, mint, and lentils into soup; simmer 30 minutes more. Break linguine into 3 sections, stir into soup, and cook at a low boil until noodles are soft, 8 to 10 minutes."},{"recipe_directions":"Stir 1/2 of the spinach into the soup until wilted, about 1 minute. Stir in remaining spinach and simmer for 30 minutes, stirring occasionally."},{"recipe_directions":"Stir flour with 3 tablespoons of the soup liquid together in a small bowl until smooth. Stir flour mixture back into soup. Continue to simmer soup over low heat, stirring frequently, until thickened, about 30 minutes."},{"recipe_directions":"Serve soup with yogurt and fried red onions."},{"recipe_directions":"Save time by frying the onions while the soup is simmering."},{"recipe_directions":"It is important to stir gently and often toward the end of the cooking process, or soup will stick to the bottom of the pot. Add more water or stock as needed to prevent sticking."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Noodle Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"475\nCalories\n\n\n11g \nFat\n\n\n76g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641775-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Yc3EVzJKB6n1iie3t7DLzhKmPWU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7816946-cc698faefa0648369c4b40756640c958.jpg"
@@ -3243,59 +3396,55 @@
 Sabzi Polo (Green Herb Rice)</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279196/sabzi-polo-green-herb-rice/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Sabzi Polo (Green Herb Rice)</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n 1 hr 20 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups long-grain basmati rice\n\n\n  kosher salt, divided\n\n\n¼ teaspoon saffron threads\n\n\n2 tablespoons boiling water\n\n\n1 large bunch finely chopped fresh parsley\n\n\n1 large bunch finely chopped fresh cilantro\n\n\n1 large bunch finely chopped fresh dill\n\n\n1 large bunch finely chopped fresh chives\n\n\n¼ cup dried dill, finely chopped\n\n\n¼ cup grapeseed oil\n\n\n1 sheet lavash bread, or as needed\n\n\n2  fresh spring garlic stalks (Optional)\n\n\n¼ cup boiling water\n\n\n3 tablespoons unsalted butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups long-grain basmati rice\n\n\n  kosher salt, divided\n\n\n¼ teaspoon saffron threads\n\n\n2 tablespoons boiling water\n\n\n1 large bunch finely chopped fresh parsley\n\n\n1 large bunch finely chopped fresh cilantro\n\n\n1 large bunch finely chopped fresh dill\n\n\n1 large bunch finely chopped fresh chives\n\n\n¼ cup dried dill, finely chopped\n\n\n¼ cup grapeseed oil\n\n\n1 sheet lavash bread, or as needed\n\n\n2  fresh spring garlic stalks (Optional)\n\n\n¼ cup boiling water\n\n\n3 tablespoons unsalted butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place rice in a medium bowl and cover with tepid water. Gently swish it around with your finger to activate the starches, then tip the bowl to drain water. Repeat this process until water runs clear, about 7 rinses. Cover rice with cold water, add 1 tablespoon salt, stir gently, and soak for 1 hour. Drain rice without rinsing."},{"recipe_directions":"Crush saffron threads to a powder in a small mortar and pestle. Transfer to a small bowl with 2 tablespoons boiling water. Stir, cover, and set saffron water aside."},{"recipe_directions":"Fill a 5-quart nonstick pot with 12 cups water and bring to a boil over medium-high heat. Add 4 tablespoons salt and stir until dissolved. Add rice, stir once gently, and watch carefully as it cooks so water does not boil over. Taste water for salt and adjust accordingly. Cook rice until the first piece pops up to the surface. Set a timer for 4 minutes and cook, scooping off any foam from the surface, until the timer goes off. Test rice and continue to cook until tender on the outside but still firm to the bite on the inside, 6 to 8 minutes more."},{"recipe_directions":"Drain rice in a colander and rinse quickly with lukewarm water and a spray faucet to rinse off extra starch. Taste rice and gently rinse again if too salty. Set aside to drain completely. Wash and dry the pot."},{"recipe_directions":"Combine chopped fresh parsley, cilantro, dill, and chives with dried dill in a medium bowl. Gently combine herb mixture with rice in the colander, taking care not to break the grains of rice."},{"recipe_directions":"Place the clean pot over medium heat. Add oil, 1 tablespoon saffron water, and a pinch of salt; swirl the pot until the bottom and lower sides are coated with the oil mixture. Trim or tear lavash bread and cover the bottom of the pot to create the tahdig layer."},{"recipe_directions":"Gently scatter rice-herb mixture over the tahdig in a pyramid shape, making sure lavash is completely covered. Place garlic stalks on top at the outer edges of the rice. Gently poke the handle of a wooden spoon into the rice a few times, being careful not to hit the tahdig; this will allow steam to escape while cooking. Cover and cook until you see steam escaping from the sides of the lid and tahdig starts to set, 10 to 13 minutes."},{"recipe_directions":"Meanwhile, combine 1/4 cup boiling water with melted butter and remaining saffron water. Lay a kitchen towel out on a heatproof surface."},{"recipe_directions":"Test the tahdig by quickly tapping the side of the pot with a wooden spoon. When the pot sizzles, remove it from the heat. Remove the lid and place it on the kitchen towel, being careful that none of the condensation drips into the pot. Wrap the towel around the lid and secure the ends at the top by the handle so they will not hang near the heat source. Drizzle the butter mixture over the rice and cover with the towel-wrapped lid."},{"recipe_directions":"Place a heat diffuser on a burner over low or medium-low heat and return the pot to the stove. Cook until crispy, rotating the pot a few times, about 45 minutes. Remove from the heat and place on a damp kitchen towel; let sit, uncovered, for 5 minutes so tahdig will release easily."},{"recipe_directions":"Serve the rice on a platter, garnish with garlic stalks, and remove the tahdig whole or in pieces and serve on the side. Or, invert carefully but quickly (like a cake) onto a serving platter."},{"recipe_directions":"Chopping the herbs in a food processor saves a lot of prep time. Pulse them instead of processing them, so they don't turn mushy."},{"recipe_directions":"Olive oil can be used instead of grapeseed oil."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n10g \nFat\n\n\n45g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641780-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cUMIUK-JNtXdnA2MRjaFZq1Px5c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/179022-7baa82ca09194b3e8a8f44d2d9958740.jpg"
@@ -3308,59 +3457,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/126778/ash-e-jow-iranianpersian-barley-soup/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Ash-e-jow (Iranian/Persian Barley Soup)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 quarts chicken stock\n\n\n2 tablespoons vegetable oil\n\n\n1 medium onion, diced\n\n\n1 cup uncooked pearl barley\n\n\n1 teaspoon turmeric \n\n\n1  lime, juiced\n\n\n¼ cup tomato paste\n\n\n  salt, to taste\n\n\n  ground black pepper, to taste\n\n\n1 cup diced carrots\n\n\n½ cup sour cream\n\n\n½ cup chopped fresh parsley\n\n\n8  lime wedges"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 quarts chicken stock\n\n\n2 tablespoons vegetable oil\n\n\n1 medium onion, diced\n\n\n1 cup uncooked pearl barley\n\n\n1 teaspoon turmeric \n\n\n1  lime, juiced\n\n\n¼ cup tomato paste\n\n\n  salt, to taste\n\n\n  ground black pepper, to taste\n\n\n1 cup diced carrots\n\n\n½ cup sour cream\n\n\n½ cup chopped fresh parsley\n\n\n8  lime wedges'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the chicken stock in a pot to a gentle simmer."},{"recipe_directions":"Heat the vegetable oil in a large pot over medium heat and saute the onion until translucent. Add the pearl barley to the pot and stir for one minute. Stir in the hot chicken stock, turmeric, lime juice, tomato paste, salt, and pepper. Bring the mixture to a boil, reduce heat to low, and simmer for 1 hour."},{"recipe_directions":"Mix in the carrots and continue simmering 30 minutes or until the soup has thickened and the carrots and barley are tender. If the soup is too thick, add hot water, one tablespoon at a time."},{"recipe_directions":"Place the sour cream in a small bowl. Slowly pour 1/2 cup of hot soup mixture into sour cream, whisking constantly. Gradually add the sour cream mixture into the soup pot, whisking constantly. Stir in the fresh parsley. Serve with fresh lime wedges."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Barley Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"193\nCalories\n\n\n7g \nFat\n\n\n28g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641783-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lHAF_mAGSYWLb6cKQRVfXvvK_Bk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/112962-b2946db6fd3749e482f7c4ede7f1ea42.jpg"
@@ -3373,59 +3518,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/59143/persian-cucumber-yogurt-maast-o-khiar/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Persian Cucumber Yogurt (Maast-o Khiar)</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (32 ounce) container plain yogurt\n\n\n3  Persian cucumbers - peeled, trimmed, and cut into 1/4-inch cubes\n\n\n1 clove garlic, minced\n\n\n1  shallot, finely chopped\n\n\n5 tablespoons dried dill weed\n\n\n1 teaspoon salt\n\n\n1 teaspoon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (32 ounce) container plain yogurt\n\n\n3  Persian cucumbers - peeled, trimmed, and cut into 1/4-inch cubes\n\n\n1 clove garlic, minced\n\n\n1  shallot, finely chopped\n\n\n5 tablespoons dried dill weed\n\n\n1 teaspoon salt\n\n\n1 teaspoon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir yogurt, cucumbers, garlic, and shallot together in a medium bowl; season with dill, salt, and pepper. Refrigerate for at least 1 hour to blend flavors."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"46\nCalories\n\n\n1g \nFat\n\n\n6g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641786-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/euoBMLTRP6C3ylMk2j62RV8EqhU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2072x0:2074x2):format(webp)/7603269-d484d711628244f8bef413617bd2dc60.jpg"
@@ -3438,59 +3579,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279047/kabob-koobideh-persian-ground-meat-kabobs/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Kabob Koobideh (Persian Ground Meat Kabobs)</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 kabobs"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  onions, peeled\n\n\n  cheesecloth\n\n\n1 pound ground lamb\n\n\n1 pound ground beef\n\n\n1  green onion, diced\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon sumac powder\n\n\n½ teaspoon ground turmeric\n\n\n2  eggs\n\n\n8 (10 inch) metal skewers"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  onions, peeled\n\n\n  cheesecloth\n\n\n1 pound ground lamb\n\n\n1 pound ground beef\n\n\n1  green onion, diced\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon sumac powder\n\n\n½ teaspoon ground turmeric\n\n\n2  eggs\n\n\n8 (10 inch) metal skewers'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Shave onions with a grater into a fine mesh strainer. Gently press pulp into the strainer to remove juices. Place pulp into the center of the cheesecloth and gently press until no further juice drips out."},{"recipe_directions":"Place lamb and beef in a pot. Add green onion and onion pulp; mix until thoroughly combined. Mix in baking powder, salt, pepper, sumac, and turmeric. Add eggs and mix thoroughly. Cover the pot and place in the refrigerator until flavors have melded, at least 30 minutes."},{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Mold meat mixture onto the skewers."},{"recipe_directions":"Cook on the preheated grill, rotating every minute, until nicely browned on all sides, and meat is no longer pink in the center, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n18g \nFat\n\n\n4g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641790-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZrdKyKLHF2INf6lNXvbkF2nxrj4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1029891-5b48c665688d425c9665133a4f887553.jpg"
@@ -3503,59 +3640,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16079/fereni-starch-pudding/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Fereni Starch Pudding</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve cornstarch in 1 cup milk in a small bowl; set aside."},{"recipe_directions":"Combine remaining 1 cup milk, ground almonds, and cardamom in a medium pot; bring to a boil. Reduce heat to medium and whisk in cornstarch mixture. Mix in sugar and rosewater. Allow pudding to boil, stirring constantly, for about 3 minutes."},{"recipe_directions":"Remove cardamom seeds and pour pudding into serving dishes. Garnish with slivered almonds and serve warm or cold."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641793-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VhLVP26kGa0wfnghnBeMuoGOYCw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1602x0:1604x2):format(webp)/7182189AshReshteh2x1-b31626e56a3443a6b58a336af172150c.jpg"
@@ -3569,59 +3702,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/ash-reshteh-recipe-7182189</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Ash Reshteh</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large onions, divided\n\n\n9 tablespoons vegetable oil, divided\n\n\n2 tablespoons ghee or butter\n\n\n3 cloves garlic, minced\n\n\n6 tablespoons dried mint, divided\n\n\n2 teaspoons turmeric, divided\n\n\n1 1/2 teaspoons kosher salt, plus more to taste\n\n\n9 cups plus 1/3 cup water, divided\n\n\n1 (15-oz.) can chickpeas, drained and rinsed\n\n\n1 (15-oz.) can pinto beans, drained and rinsed\n\n\n3/4 cup green lentils\n\n\n6 cups fresh spinach\n\n\n1 1/2 cups chopped fresh parsley\n\n\n1 cup chopped fresh cilantro\n\n\n2 tablespoons flour\n\n\n6 ounces reshteh or fettuccine\n\n\n1 bulb garlic, cloves peeled and minced\n\n\n3 tablespoons kashk or Greek-style yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large onions, divided\n\n\n9 tablespoons vegetable oil, divided\n\n\n2 tablespoons ghee or butter\n\n\n3 cloves garlic, minced\n\n\n6 tablespoons dried mint, divided\n\n\n2 teaspoons turmeric, divided\n\n\n1 1/2 teaspoons kosher salt, plus more to taste\n\n\n9 cups plus 1/3 cup water, divided\n\n\n1 (15-oz.) can chickpeas, drained and rinsed\n\n\n1 (15-oz.) can pinto beans, drained and rinsed\n\n\n3/4 cup green lentils\n\n\n6 cups fresh spinach\n\n\n1 1/2 cups chopped fresh parsley\n\n\n1 cup chopped fresh cilantro\n\n\n2 tablespoons flour\n\n\n6 ounces reshteh or fettuccine\n\n\n1 bulb garlic, cloves peeled and minced\n\n\n3 tablespoons kashk or\xa0Greek-style yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thinly slice 2 onions. Heat 2 tablespoons oil and ghee over medium heat in a large pot. Add sliced onions and cook, stirring occasionally, until golden brown, about 15 minutes. Add minced garlic cloves and cook, stirring frequently, about 2 minutes. Stir in 1 tablespoon dried mint, 1 1/2 teaspoons turmeric, and salt. Add 8 1/2 cups water, chickpeas, pinto beans, and lentils."},{"recipe_directions":"Increase heat to medium-high and bring to a simmer. Stir in spinach, parsley, and cilantro. Return mixture to a simmer. Cook over low heat, covered, until lentils are tender, about 30 minutes."},{"recipe_directions":"Meanwhile, heat 2 tablespoons oil in a small saucepan. Add 2 tablespoons dried mint and cook until fragrant, about 2 minutes. Stir mint into soup. Season soup to taste."},{"recipe_directions":"Stir together flour and 1/3 cup water in a small bowl; add to soup. Increase heat to medium. Add reshteh and simmer, uncovered, stirring occasionally, until noodles are tender and soup is thickened, about 12 minutes."},{"recipe_directions":"For toppers, slice remaining onion. Heat 2 tablespoons oil in a skillet over medium-high heat. Add onion; cook, stirring occasionally, until golden brown, about 10 minutes. Stir in remaining 1/2 teaspoon turmeric and cook for 1 minute more. Transfer onion mixture to a plate."},{"recipe_directions":"Reduce heat to medium. Stir minced garlic bulb into the skillet and cook, adding more oil as needed, until golden and crispy, about 3 minutes. Transfer garlic to a bowl. Add remaining 3 tablespoons dried mint and 3 tablespoons vegetable oil to the skillet. Cook over medium heat, stirring, until fragrant, 2 to 3 minutes. Transfer sautéed mint to a bowl using a slotted spoon. Stir together kashk and remaining 1/2 cup water in a small bowl."},{"recipe_directions":"Top soup servings with sautéed onion, crispy garlic, and fried mint; drizzle with kashk mixture."},{"recipe_directions":"Reshteh"},{"recipe_directions":"Look for these thin flour noodles in Persian or Middle Eastern groceries—or use fettuccine and add 1/2 teaspoon salt in Step 3."},{"recipe_directions":"Ghee"},{"recipe_directions":"A type of clarified butter, ghee is commonly used in Middle Eastern and South Asian cooking. You can substitute butter if you don’t have ghee."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"563\nCalories\n\n\n28g \nFat\n\n\n63g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699641798-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/20t7Q4N-RKD6CYDae52dOXkZ524=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(876x0:878x2):format(webp)/7182288FriedFish2x1-94f7eff279d6440fb423bf32b0a69fcb.jpg"
@@ -3635,59 +3764,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/persian-fried-fish-with-saffron-and-turmeric-7182288</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Persian Fried Fish with Saffron and Turmeric</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nMarinate Time:\n20 mins\n\n\nStand Time:\n45 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1/4 teaspoon ground saffron\n\n\n3 tablespoons lemon juice (from 1 lemon)\n\n\n2 tablespoons olive oil\n\n\n2 teaspoons salt, divided\n\n\n1 teaspoon black pepper, divided\n\n\n8 (6-oz.) white fish fillets, such as mahi-mahi, haddock, or flounder \n\n\n1 cup flour\n\n\n1 teaspoon turmeric\n\n\n1 teaspoon paprika\n\n\n1/4 cup vegetable oil\n\n\nlemon wedges, for serving"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1/4 teaspoon ground saffron\n\n\n3 tablespoons lemon juice (from 1 lemon)\n\n\n2 tablespoons olive oil\n\n\n2 teaspoons salt, divided\n\n\n1 teaspoon black pepper, divided\n\n\n8 (6-oz.) white fish fillets, such as mahi-mahi, haddock, or flounder\xa0\n\n\n1 cup flour\n\n\n1 teaspoon turmeric\n\n\n1 teaspoon paprika\n\n\n1/4 cup vegetable oil\n\n\nlemon wedges, for serving'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To bloom saffron, sprinkle saffron over a few ice cubes in a small bowl; let stand at room temperature until ice melts completely, about 45 minutes."},{"recipe_directions":"For marinade, stir together saffron mixture, lemon juice, olive oil, 1 teaspoon salt, and 1/2 teaspoon pepper in a small bowl. Put fish in a shallow dish; pour marinade over fish, turning to coat. Cover and marinate in the refrigerator for 20 minutes. (Avoid marinating longer, which can cause the fish to “cook” in the acidic mixture.)"},{"recipe_directions":"Stir together flour, turmeric, paprika, and remaining 1 teaspoon salt and 1/2 teaspoon pepper in a shallow dish."},{"recipe_directions":"Heat vegetable oil in a very large skillet over medium heat."},{"recipe_directions":"Dredge fish in flour mixture, coating both sides of each fillet. Working in batches as needed, fry fish in the hot oil, turning once, until fish flakes easily with a fork, 5 to 7 minutes. An instant-read thermometer inserted into the center should read at least 145 degrees F (63 degrees C)."},{"recipe_directions":"Transfer fish to a wire rack. Serve immediately with lemon wedges."},{"recipe_directions":"Sabzi Khordan:"},{"recipe_directions":"A platter of feta, nuts, veggies, and piles of fresh herbs is a quintessential accessory to most Persian meals—it plays the part of salad, appetizer, and serve-yourself dinner garnishes, all at once."},{"recipe_directions":"Serve with:"},{"recipe_directions":"Sabzi Polo is the perfect side to this fried fish recipe."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"348\nCalories\n\n\n12g \nFat\n\n\n21g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699641801-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/n9_VNydT2m_HfMEzKrNZRjj4jes=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2953745-12a096ee9fcb4ce89676ff7dc8fb114b.jpg"
@@ -3700,59 +3825,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245478/turkey-kofta-kabobs/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Turkey Kofta Kebabs</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n12 kebabs"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"vegetable oil for grill\n\n\n1 pound ground turkey\n\n\n1 small onion, minced\n\n\n¼ cup chopped fresh cilantro\n\n\n1 large egg\n\n\n2 cloves garlic, minced\n\n\n¼ teaspoon chopped green chile pepper\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon ground paprika\n\n\n¼ teaspoon chili powder\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'vegetable oil for grill\n\n\n1 pound ground turkey\n\n\n1 small onion, minced\n\n\n¼ cup chopped fresh cilantro\n\n\n1 large egg\n\n\n2 cloves garlic, minced\n\n\n¼ teaspoon chopped green chile pepper\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon ground paprika\n\n\n¼ teaspoon chili powder\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the grill for medium heat and lightly oil the grate."},{"recipe_directions":"Combine turkey, onion, cilantro, egg, garlic, chile pepper, coriander, paprika, chili powder, and salt in a large bowl; mix thoroughly. Divide mixture into twelve 1/4-cup portions; roll into log-shaped ovals and place on a baking sheet."},{"recipe_directions":"Grill ovals over indirect heat, turning occasionally, until no longer pink in the center, 25 to 30 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"65\nCalories\n\n\n3g \nFat\n\n\n1g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699641805-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CZqoICPD6HcdDb7F9iR8UaTq5zk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/24606-persian-rice-mfs_149-04ba83bbdc4449f0a97767fff0172dfa.jpg"
@@ -3766,59 +3887,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240606/persian-rice/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Persian Rice</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 quarts water\n\n\n3 tablespoons kosher salt\n\n\n2 cups basmati rice, rinsed\n\n\n2 tablespoons olive oil\n\n\n1  russet potato, cut into 1/4-inch slices\n\n\n1 pinch ground cumin\n\n\n  salt to taste\n\n\n3 tablespoons butter, cut into thin slices, or to taste\n\n\n1 pinch saffron threads\n\n\n1 ½ tablespoons hot water\n\n\n1 tablespoon chopped parsley, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 quarts water\n\n\n3 tablespoons kosher salt\n\n\n2 cups basmati rice, rinsed\n\n\n2 tablespoons olive oil\n\n\n1  russet potato, cut into 1/4-inch slices\n\n\n1 pinch ground cumin\n\n\n  salt to taste\n\n\n3 tablespoons butter, cut into thin slices, or to taste\n\n\n1 pinch saffron threads\n\n\n1 ½ tablespoons hot water\n\n\n1 tablespoon chopped parsley, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place water and kosher salt in a pot; bring to a boil. Add rice; cook and stir for exactly 7 minutes. Drain."},{"recipe_directions":"Heat olive oil in a pot over medium-high heat. Cover the bottom of the pot with 1 layer of potato slices. Sprinkle cumin and salt over potatoes. Cook until potatoes are sizzling, 2 to 3 minutes; top potatoes with rice to form an even layer. Reduce heat to low and place butter slices over rice."},{"recipe_directions":"Top the pot with a layer of clean paper towels, then place the lid over the towels. Steam until rice is fluffy, about 45 minutes."},{"recipe_directions":"Grind saffron threads with a mortar and pestle. Mix crushed saffron with 1 1/2 tablespoons hot water in a large bowl. Add a couple of spoonfuls of rice to saffron mixture and stir until rice is yellow."},{"recipe_directions":"Spoon remaining rice into a serving bowl. Top with saffron rice and line the edges of the bowl with potatoes. Garnish with parsley."},{"recipe_directions":"You can use vegetable oil instead of olive oil if desired."},{"recipe_directions":"This is delicious served with anything, but especially with my Duck Fesenjan recipe."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"},{"recipe_tags":"Pilaf"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n8g \nFat\n\n\n42g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699641809-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i2lJGoClYbthwcwhpNansz1wcYM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/257499-ghormeh-sabzi-persian-herb-stew-DDMFS-beauty-4x3-BG-2923-0a3327d626ca4b848bd1d1ebd7ca331d.jpg"
@@ -3832,59 +3949,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257499/ghormeh-sabzi-persian-herb-stew/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Ghormeh Sabzi (Persian Herb Stew)</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 2 hrs 25 mins\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup canola oil, divided\n\n\n1 large yellow onion, finely chopped\n\n\n1 teaspoon ground turmeric\n\n\n1 ½ pounds boneless chuck roast, cut into 1 1/2-inch cubes\n\n\n1 ½ cups finely chopped spinach\n\n\n1 cup finely chopped green onions (green part only)\n\n\n½ cup finely chopped Italian flat-leaf parsley\n\n\n¼ cup finely chopped cilantro\n\n\n¼ cup finely chopped chives\n\n\n¼ cup finely chopped fenugreek leaves\n\n\n1 ½ cups water, or more as needed\n\n\n  salt and ground black pepper to taste\n\n\n1  lemon, juiced\n\n\n4  dried Persian limes (limoo amani), or more to taste\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup canola oil, divided\n\n\n1 large yellow onion, finely chopped\n\n\n1 teaspoon ground turmeric\n\n\n1 ½ pounds boneless chuck roast, cut into 1 1/2-inch cubes\n\n\n1 ½ cups finely chopped spinach\n\n\n1 cup finely chopped green onions (green part only)\n\n\n½ cup finely chopped Italian flat-leaf parsley\n\n\n¼ cup finely chopped cilantro\n\n\n¼ cup finely chopped chives\n\n\n¼ cup finely chopped fenugreek leaves\n\n\n1 ½ cups water, or more as needed\n\n\n  salt and ground black pepper to taste\n\n\n1  lemon, juiced\n\n\n4  dried Persian limes (limoo amani), or more to taste\n\n\n1 (15 ounce) can red kidney beans, drained and rinsed'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 2 tablespoons oil in a large pot over medium-high heat. Add onion; cook and stir until deep golden brown, 10 to 15 minutes. Stir in turmeric for 1 to 2 minutes."},{"recipe_directions":"Add chuck cubes; cook until coated in turmeric and browned on all sides, 8 to 10 minutes."},{"recipe_directions":"Heat remaining 2 tablespoons oil in a separate pot over medium heat. Add spinach, green onions, parsley, cilantro, chives, and fenugreek leaves; cook and stir until deep dark green in color, 5 to 10 minutes."},{"recipe_directions":"Stir spinach mixture into onion and chuck mixture. Pour in enough water to create a slurry consistency. Season with salt and pepper. Stir in lemon juice. Reduce heat, cover, and simmer stew until greens soften, about 1 hour."},{"recipe_directions":"Pierce dried limes with a fork; add to stew."},{"recipe_directions":"Continue simmering until chuck is tender, 30 minutes to 1 hour. Stir in red kidney beans. Cook until flavors combine, about 30 more minutes."},{"recipe_directions":"Discard dried limes before serving."},{"recipe_directions":"Substitute lamb stew meat for the chuck roast if preferred."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"344\nCalories\n\n\n23g \nFat\n\n\n19g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699641812-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/15937/world-cuisine/middle-eastern/persian/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UgXXCaoRLjqdHIAqy7qE5JfvuIg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7182180ShiriniNargili2x1-0e9964065c50410ab8a38ca16d8720f8.jpg"
@@ -3898,42 +4011,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/shirini-nargili-recipe-7182180</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Shirini Nargili</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n35 mins\n\n\nStand Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n30 \n\n\nYield:\n30 cookies"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons shredded coconut\n\n\n3/4 cup sugar\n\n\n3 egg whites\n\n\n1/4 cup vegetable oil\n\n\n1/2 teaspoon lemon juice\n\n\n1/2 teaspoon vanilla extract\n\n\nroughly chopped pistachios"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons shredded coconut\n\n\n3/4 cup sugar\n\n\n3 egg whites\n\n\n1/4 cup vegetable oil\n\n\n1/2 teaspoon lemon juice\n\n\n1/2 teaspoon vanilla extract\n\n\nroughly chopped pistachios'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Process coconut and sugar in a food processor until blended, about 10 seconds. Add egg whites and oil; process until well combined, about 10 seconds. Scrape down sides of processor bowl; blend 10 seconds more. Transfer coconut mixture to a saucepan. Heat over medium-low heat, stirring constantly, until mixture thickens into a paste, about 15 minutes. (Don’t let mixture simmer or boil.)"},{"recipe_directions":"Remove saucepan from heat. Stir in lemon juice and vanilla. Let cool to room temperature, about 1 hour. Batter will thicken as it cools."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Transfer cooled batter to a pastry bag fitted with a small round tip. Pipe 1 1/2-inch circles on the parchment paper, spacing about 2 inches apart. Lightly oil the tip of your index finger and smooth the tops of the cookies. Sprinkle with pistachios ."},{"recipe_directions":"Bake in the preheated oven until bottoms and edges are golden, about 20 minutes. Cool completely on the baking sheet. Store in an airtight container up to 3 days at room temperature or freeze up to 3 months."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Gluten Free"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"39\nCalories\n\n\n2g \nFat\n\n\n5g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>